--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -89,6 +89,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -114,6 +115,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -139,6 +141,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -164,6 +167,33 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+最大攻击速度</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -171,24 +201,25 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -196,24 +227,25 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -221,24 +253,25 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -246,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -272,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -298,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -324,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -350,7 +383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -376,7 +409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -402,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -428,7 +461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -454,7 +487,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -480,7 +513,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -506,7 +539,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -532,7 +565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="W1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -558,7 +591,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -584,7 +617,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -610,7 +643,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -636,7 +669,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -662,7 +695,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="AB1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -688,7 +721,67 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0">
+    <comment ref="AC1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+弹道生成点
+1,0.5
+1表示单位正前方1米
+0.5表示单位高度0.5米
+的位置</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+弹道结束点
+0,0.5
+0表示单位正前方0米
+0.5表示单位高度0.5米
+的位置</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -714,7 +807,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0">
+    <comment ref="AF1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -737,6 +830,136 @@
           </rPr>
           <t xml:space="preserve">
 (1:近程攻击 2:远程攻击)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+自动攻击的追击范围</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+自动攻击的取消追击范围</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+阵营(1:玩家 2:NPC)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+初始技能信息 逗号分隔</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+碰撞半径</t>
         </r>
       </text>
     </comment>
@@ -745,7 +968,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Hero/hero2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -836,35 +1059,78 @@
     <t>AttackRangeBuffer</t>
   </si>
   <si>
+    <t>ProjectileSpeed</t>
+  </si>
+  <si>
+    <t>UnitType</t>
+  </si>
+  <si>
+    <t>AttackAcpabilities</t>
+  </si>
+  <si>
+    <t>剑圣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoAttackTraceRange</t>
+  </si>
+  <si>
+    <t>AutoAttackTraceOutRange</t>
+  </si>
+  <si>
+    <t>Camp</t>
+  </si>
+  <si>
+    <t>UnitName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseMaxAttackSpeed</t>
+  </si>
+  <si>
+    <t>1,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectileEndPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectileStartPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ProjectileMode</t>
-  </si>
-  <si>
-    <t>ProjectileSpeed</t>
-  </si>
-  <si>
-    <t>UnitType</t>
-  </si>
-  <si>
-    <t>AttackAcpabilities</t>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑圣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骷髅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/vfx_Projectile_PinkGum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitSkillsInfo</t>
+  </si>
+  <si>
+    <t>CollisionR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -899,12 +1165,6 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1235,10 +1495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC7" sqref="AC7"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1247,37 +1507,39 @@
     <col min="3" max="3" width="11.875" customWidth="1"/>
     <col min="4" max="4" width="9.125" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="16.625" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="15.75" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="14.875" customWidth="1"/>
-    <col min="11" max="11" width="12.25" customWidth="1"/>
-    <col min="12" max="12" width="15.875" customWidth="1"/>
-    <col min="13" max="13" width="13.75" customWidth="1"/>
-    <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="16" max="16" width="11.375" customWidth="1"/>
-    <col min="17" max="17" width="12.75" customWidth="1"/>
-    <col min="18" max="18" width="17" customWidth="1"/>
-    <col min="19" max="19" width="16.125" customWidth="1"/>
-    <col min="20" max="20" width="18.75" customWidth="1"/>
-    <col min="21" max="21" width="18.375" customWidth="1"/>
-    <col min="22" max="22" width="15.125" customWidth="1"/>
-    <col min="23" max="23" width="14.625" customWidth="1"/>
-    <col min="24" max="24" width="16.625" customWidth="1"/>
-    <col min="25" max="25" width="14.25" customWidth="1"/>
-    <col min="26" max="26" width="11.5" customWidth="1"/>
-    <col min="27" max="27" width="12.125" customWidth="1"/>
-    <col min="28" max="28" width="7.625" customWidth="1"/>
-    <col min="29" max="29" width="14" customWidth="1"/>
+    <col min="6" max="7" width="16.625" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="14.875" customWidth="1"/>
+    <col min="12" max="12" width="12.25" customWidth="1"/>
+    <col min="13" max="13" width="15.875" customWidth="1"/>
+    <col min="14" max="14" width="13.75" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="17" max="17" width="11.375" customWidth="1"/>
+    <col min="18" max="18" width="12.75" customWidth="1"/>
+    <col min="19" max="19" width="17" customWidth="1"/>
+    <col min="20" max="20" width="16.125" customWidth="1"/>
+    <col min="21" max="21" width="18.75" customWidth="1"/>
+    <col min="22" max="22" width="18.375" customWidth="1"/>
+    <col min="23" max="23" width="15.125" customWidth="1"/>
+    <col min="24" max="24" width="14.625" customWidth="1"/>
+    <col min="25" max="25" width="16.625" customWidth="1"/>
+    <col min="26" max="26" width="14.25" customWidth="1"/>
+    <col min="27" max="27" width="19" customWidth="1"/>
+    <col min="28" max="30" width="12.125" customWidth="1"/>
+    <col min="31" max="31" width="7.625" customWidth="1"/>
+    <col min="32" max="32" width="14" customWidth="1"/>
+    <col min="33" max="33" width="14.75" customWidth="1"/>
+    <col min="34" max="34" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1291,168 +1553,216 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>29</v>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>500</v>
+        <v>50000</v>
       </c>
       <c r="E2">
         <v>200</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G2">
+        <v>850</v>
+      </c>
+      <c r="H2">
         <v>30</v>
       </c>
-      <c r="H2">
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.25</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>30</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>25</v>
+      </c>
+      <c r="V2">
         <v>1.5</v>
       </c>
-      <c r="I2">
-        <v>2.6</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0.25</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>2</v>
-      </c>
-      <c r="R2">
-        <v>30</v>
-      </c>
-      <c r="S2">
-        <v>2</v>
-      </c>
-      <c r="T2">
-        <v>25</v>
-      </c>
-      <c r="U2">
-        <v>1.5</v>
-      </c>
-      <c r="V2">
+      <c r="W2">
         <v>35</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>2.8</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
+        <v>0.7</v>
+      </c>
+      <c r="Z2">
+        <v>2.5</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AK2">
         <v>0.3</v>
       </c>
-      <c r="Y2">
-        <v>2.5</v>
-      </c>
-      <c r="AA2">
-        <v>10</v>
-      </c>
-      <c r="AB2">
-        <v>1</v>
-      </c>
-      <c r="AC2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1467,70 +1777,94 @@
         <v>100</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="H3">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>1.2</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.25</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0.5</v>
+      </c>
+      <c r="Z3">
+        <v>2.5</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB3">
+        <v>5</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE3">
         <v>2</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0.25</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
+      <c r="AF3">
         <v>1</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0.5</v>
-      </c>
-      <c r="Y3">
-        <v>2.5</v>
-      </c>
-      <c r="AA3">
+      <c r="AG3">
         <v>10</v>
       </c>
-      <c r="AB3">
+      <c r="AH3">
+        <v>12</v>
+      </c>
+      <c r="AI3">
         <v>2</v>
       </c>
-      <c r="AC3">
-        <v>1</v>
+      <c r="AK3">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1498,7 +1498,7 @@
   <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -968,7 +968,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Hero/hero2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1062,68 +1062,73 @@
     <t>ProjectileSpeed</t>
   </si>
   <si>
+    <t>AttackAcpabilities</t>
+  </si>
+  <si>
+    <t>剑圣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoAttackTraceRange</t>
+  </si>
+  <si>
+    <t>AutoAttackTraceOutRange</t>
+  </si>
+  <si>
+    <t>Camp</t>
+  </si>
+  <si>
+    <t>UnitName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseMaxAttackSpeed</t>
+  </si>
+  <si>
+    <t>1,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectileEndPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectileStartPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectileMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/vfx_Projectile_PinkGum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitSkillsInfo</t>
+  </si>
+  <si>
+    <t>CollisionR</t>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>UnitType</t>
-  </si>
-  <si>
-    <t>AttackAcpabilities</t>
-  </si>
-  <si>
-    <t>剑圣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骷髅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AutoAttackTraceRange</t>
-  </si>
-  <si>
-    <t>AutoAttackTraceOutRange</t>
-  </si>
-  <si>
-    <t>Camp</t>
-  </si>
-  <si>
-    <t>UnitName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseMaxAttackSpeed</t>
-  </si>
-  <si>
-    <t>1,0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProjectileEndPos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProjectileStartPos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProjectileMode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet/Projectiles/vfx_Projectile_PinkGum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InitSkillsInfo</t>
-  </si>
-  <si>
-    <t>CollisionR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1498,7 +1503,7 @@
   <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1539,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1554,7 +1559,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -1614,37 +1619,37 @@
         <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="AG1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="AJ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.15">
@@ -1652,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -1661,7 +1666,7 @@
         <v>50000</v>
       </c>
       <c r="E2">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="F2">
         <v>120</v>
@@ -1730,10 +1735,10 @@
         <v>0</v>
       </c>
       <c r="AC2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AE2">
         <v>1</v>
@@ -1750,8 +1755,8 @@
       <c r="AI2">
         <v>1</v>
       </c>
-      <c r="AJ2">
-        <v>1</v>
+      <c r="AJ2" t="s">
+        <v>44</v>
       </c>
       <c r="AK2">
         <v>0.3</v>
@@ -1762,7 +1767,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1837,16 +1842,16 @@
         <v>2.5</v>
       </c>
       <c r="AA3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB3">
         <v>5</v>
       </c>
       <c r="AC3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD3" t="s">
         <v>37</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>38</v>
       </c>
       <c r="AE3">
         <v>2</v>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1123,11 +1123,11 @@
     <t>CollisionR</t>
   </si>
   <si>
-    <t>1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UnitType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1502,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AJ11" sqref="AJ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1631,7 +1631,7 @@
         <v>38</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>27</v>
@@ -1756,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="AJ2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK2">
         <v>0.3</v>
@@ -1860,10 +1860,10 @@
         <v>1</v>
       </c>
       <c r="AG3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AH3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AI3">
         <v>2</v>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -968,7 +968,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Hero/hero2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1128,6 +1128,10 @@
   </si>
   <si>
     <t>1,2,3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1500,10 +1504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK3"/>
+  <dimension ref="A1:AK4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AJ11" sqref="AJ11"/>
+      <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1657,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -1869,6 +1873,116 @@
         <v>2</v>
       </c>
       <c r="AK3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>50000</v>
+      </c>
+      <c r="E4">
+        <v>20000</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>700</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.25</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>30</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>25</v>
+      </c>
+      <c r="V4">
+        <v>1.5</v>
+      </c>
+      <c r="W4">
+        <v>35</v>
+      </c>
+      <c r="X4">
+        <v>2.8</v>
+      </c>
+      <c r="Y4">
+        <v>0.7</v>
+      </c>
+      <c r="Z4">
+        <v>2.5</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <v>5</v>
+      </c>
+      <c r="AK4">
         <v>0.3</v>
       </c>
     </row>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -968,7 +968,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>Hero/hero2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1132,6 +1132,14 @@
   </si>
   <si>
     <t>PA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑圣治疗棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1504,10 +1512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK4"/>
+  <dimension ref="A1:AK5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AF13" sqref="AF13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1667,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="E2">
         <v>20000</v>
@@ -1789,7 +1797,7 @@
         <v>600</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I3">
         <v>5</v>
@@ -1887,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="E4">
         <v>20000</v>
@@ -1979,11 +1987,112 @@
       <c r="AI4">
         <v>1</v>
       </c>
-      <c r="AJ4">
-        <v>5</v>
+      <c r="AJ4" t="s">
+        <v>48</v>
       </c>
       <c r="AK4">
         <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1.2</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>2</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>2</v>
+      </c>
+      <c r="AK5">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1139,7 +1139,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5,6</t>
+    <t>5,6,8,7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1514,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AK11" sqref="AK11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -968,11 +968,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
-  <si>
-    <t>Hero/hero2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1093,10 +1089,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0,0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1140,6 +1132,38 @@
   </si>
   <si>
     <t>5,6,8,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Archer_Lit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Mage_Lit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Worker_Lit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Footman_Lit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1512,16 +1536,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK5"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AK11" sqref="AK11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
     <col min="4" max="4" width="9.125" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="7" width="16.625" customWidth="1"/>
@@ -1553,115 +1577,115 @@
   <sheetData>
     <row r="1" spans="1:37" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="AK1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.15">
@@ -1669,10 +1693,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D2">
         <v>1000</v>
@@ -1681,10 +1705,10 @@
         <v>20000</v>
       </c>
       <c r="F2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G2">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -1747,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="AC2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD2" t="s">
         <v>35</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>37</v>
       </c>
       <c r="AE2">
         <v>1</v>
@@ -1768,10 +1792,10 @@
         <v>1</v>
       </c>
       <c r="AJ2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AK2">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.15">
@@ -1779,10 +1803,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>1000</v>
@@ -1800,7 +1824,7 @@
         <v>50</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J3">
         <v>1.2</v>
@@ -1848,22 +1872,22 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z3">
         <v>2.5</v>
       </c>
       <c r="AA3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AB3">
         <v>5</v>
       </c>
       <c r="AC3" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="AD3" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="AE3">
         <v>2</v>
@@ -1872,16 +1896,16 @@
         <v>1</v>
       </c>
       <c r="AG3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI3">
         <v>2</v>
       </c>
       <c r="AK3">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.15">
@@ -1889,10 +1913,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D4">
         <v>1000</v>
@@ -1901,10 +1925,10 @@
         <v>20000</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G4">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -1958,7 +1982,7 @@
         <v>2.8</v>
       </c>
       <c r="Y4">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="Z4">
         <v>2.5</v>
@@ -1967,10 +1991,10 @@
         <v>0</v>
       </c>
       <c r="AC4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD4" t="s">
         <v>35</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>37</v>
       </c>
       <c r="AE4">
         <v>1</v>
@@ -1988,10 +2012,10 @@
         <v>1</v>
       </c>
       <c r="AJ4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK4">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.15">
@@ -1999,10 +2023,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -2093,6 +2117,119 @@
       </c>
       <c r="AK5">
         <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6">
+        <v>100000</v>
+      </c>
+      <c r="E6">
+        <v>20000</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>700</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.25</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>30</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>25</v>
+      </c>
+      <c r="V6">
+        <v>1.5</v>
+      </c>
+      <c r="W6">
+        <v>35</v>
+      </c>
+      <c r="X6">
+        <v>2.8</v>
+      </c>
+      <c r="Y6">
+        <v>0.7</v>
+      </c>
+      <c r="Z6">
+        <v>2.5</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB6">
+        <v>4</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>2</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <v>9</v>
+      </c>
+      <c r="AK6">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -968,7 +968,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1164,6 +1164,10 @@
   </si>
   <si>
     <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1538,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AL13" sqref="AL13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2225,8 +2229,8 @@
       <c r="AI6">
         <v>1</v>
       </c>
-      <c r="AJ6">
-        <v>9</v>
+      <c r="AJ6" t="s">
+        <v>55</v>
       </c>
       <c r="AK6">
         <v>0.4</v>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1167,7 +1167,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9,10</t>
+    <t>9,10,11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1542,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AL13" sqref="AL13"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1703,7 +1703,7 @@
         <v>51</v>
       </c>
       <c r="D2">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="E2">
         <v>20000</v>
@@ -1787,10 +1787,10 @@
         <v>1</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI2">
         <v>1</v>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1167,7 +1167,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9,10,11</t>
+    <t>9,10,11,12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1542,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -968,7 +968,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1168,6 +1168,14 @@
   </si>
   <si>
     <t>9,10,11,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Knight_Lit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1540,10 +1548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1799,7 +1807,7 @@
         <v>43</v>
       </c>
       <c r="AK2">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.15">
@@ -1909,7 +1917,7 @@
         <v>2</v>
       </c>
       <c r="AK3">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.15">
@@ -2019,7 +2027,7 @@
         <v>46</v>
       </c>
       <c r="AK4">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.15">
@@ -2233,6 +2241,116 @@
         <v>55</v>
       </c>
       <c r="AK6">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7">
+        <v>1000</v>
+      </c>
+      <c r="E7">
+        <v>20000</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>700</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.25</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>30</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>25</v>
+      </c>
+      <c r="V7">
+        <v>1.5</v>
+      </c>
+      <c r="W7">
+        <v>35</v>
+      </c>
+      <c r="X7">
+        <v>2.8</v>
+      </c>
+      <c r="Y7">
+        <v>0.5</v>
+      </c>
+      <c r="Z7">
+        <v>2.5</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>13</v>
+      </c>
+      <c r="AK7">
         <v>0.4</v>
       </c>
     </row>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -968,7 +968,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1176,6 +1176,10 @@
   </si>
   <si>
     <t>Hero/Knight_Lit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,14,15,16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1550,8 +1554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AG21" sqref="AG21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2255,7 +2259,7 @@
         <v>57</v>
       </c>
       <c r="D7">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="E7">
         <v>20000</v>
@@ -2347,8 +2351,8 @@
       <c r="AI7">
         <v>1</v>
       </c>
-      <c r="AJ7">
-        <v>13</v>
+      <c r="AJ7" t="s">
+        <v>58</v>
       </c>
       <c r="AK7">
         <v>0.4</v>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -968,7 +968,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1180,6 +1180,18 @@
   </si>
   <si>
     <t>13,14,15,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Horseman_Lit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17,18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1552,10 +1564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AK8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AG21" sqref="AG21"/>
+      <selection activeCell="AG24" sqref="AG24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2358,6 +2370,116 @@
         <v>0.4</v>
       </c>
     </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8">
+        <v>10000</v>
+      </c>
+      <c r="E8">
+        <v>20000</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>700</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0.25</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>30</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>25</v>
+      </c>
+      <c r="V8">
+        <v>1.5</v>
+      </c>
+      <c r="W8">
+        <v>35</v>
+      </c>
+      <c r="X8">
+        <v>2.8</v>
+      </c>
+      <c r="Y8">
+        <v>0.5</v>
+      </c>
+      <c r="Z8">
+        <v>2.5</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK8">
+        <v>0.4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1191,7 +1191,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>17,18</t>
+    <t>17,18,19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1566,8 +1566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AG24" sqref="AG24"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AK20" sqref="AK20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1191,7 +1191,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>17,18,19</t>
+    <t>17,18,19,20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1566,8 +1566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AK20" sqref="AK20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2381,7 +2381,7 @@
         <v>60</v>
       </c>
       <c r="D8">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="E8">
         <v>20000</v>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -968,7 +968,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1192,6 +1192,14 @@
   </si>
   <si>
     <t>17,18,19,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊战士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Druid_Unlit_MaskTint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1564,10 +1572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK8"/>
+  <dimension ref="A1:AK9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AG20" sqref="AG20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1823,7 +1831,7 @@
         <v>43</v>
       </c>
       <c r="AK2">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.15">
@@ -1933,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="AK3">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.15">
@@ -2043,7 +2051,7 @@
         <v>46</v>
       </c>
       <c r="AK4">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.15">
@@ -2477,6 +2485,116 @@
         <v>61</v>
       </c>
       <c r="AK8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9">
+        <v>10000</v>
+      </c>
+      <c r="E9">
+        <v>20000</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>700</v>
+      </c>
+      <c r="H9">
+        <v>50</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.25</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>30</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>25</v>
+      </c>
+      <c r="V9">
+        <v>1.5</v>
+      </c>
+      <c r="W9">
+        <v>35</v>
+      </c>
+      <c r="X9">
+        <v>2.8</v>
+      </c>
+      <c r="Y9">
+        <v>0.5</v>
+      </c>
+      <c r="Z9">
+        <v>2.5</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
+      </c>
+      <c r="AJ9">
+        <v>21</v>
+      </c>
+      <c r="AK9">
         <v>0.4</v>
       </c>
     </row>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -968,7 +968,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1200,6 +1200,10 @@
   </si>
   <si>
     <t>Hero/Druid_Unlit_MaskTint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,22,23,24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1575,7 +1579,7 @@
   <dimension ref="A1:AK9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AG20" sqref="AG20"/>
+      <selection activeCell="AK18" sqref="AK18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1604,7 +1608,8 @@
     <col min="25" max="25" width="16.625" customWidth="1"/>
     <col min="26" max="26" width="14.25" customWidth="1"/>
     <col min="27" max="27" width="19" customWidth="1"/>
-    <col min="28" max="30" width="12.125" customWidth="1"/>
+    <col min="28" max="29" width="12.125" customWidth="1"/>
+    <col min="30" max="30" width="16.125" customWidth="1"/>
     <col min="31" max="31" width="7.625" customWidth="1"/>
     <col min="32" max="32" width="14" customWidth="1"/>
     <col min="33" max="33" width="14.75" customWidth="1"/>
@@ -2541,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S9">
         <v>30</v>
@@ -2591,8 +2596,8 @@
       <c r="AI9">
         <v>1</v>
       </c>
-      <c r="AJ9">
-        <v>21</v>
+      <c r="AJ9" t="s">
+        <v>64</v>
       </c>
       <c r="AK9">
         <v>0.4</v>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -968,7 +968,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1204,6 +1204,18 @@
   </si>
   <si>
     <t>21,22,23,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Demon Hunter Unlit_MaskTint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1576,10 +1588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK9"/>
+  <dimension ref="A1:AK10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AK18" sqref="AK18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AJ21" sqref="AJ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2380,7 +2392,7 @@
         <v>58</v>
       </c>
       <c r="AK7">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.15">
@@ -2600,7 +2612,117 @@
         <v>64</v>
       </c>
       <c r="AK9">
-        <v>0.4</v>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10">
+        <v>10000</v>
+      </c>
+      <c r="E10">
+        <v>20000</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>700</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.25</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>30</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>25</v>
+      </c>
+      <c r="V10">
+        <v>1.5</v>
+      </c>
+      <c r="W10">
+        <v>35</v>
+      </c>
+      <c r="X10">
+        <v>2.8</v>
+      </c>
+      <c r="Y10">
+        <v>0.5</v>
+      </c>
+      <c r="Z10">
+        <v>2.5</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK10">
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1215,7 +1215,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>25,26</t>
+    <t>25,26,27</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1590,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ21" sqref="AJ21"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AJ22" sqref="AJ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1215,7 +1215,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>25,26,27</t>
+    <t>25,26,27,28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1590,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AJ22" sqref="AJ22"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AK21" sqref="AK21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -968,7 +968,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1216,6 +1216,18 @@
   </si>
   <si>
     <t>25,26,27,28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Dryad_Unlit_MaskTint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29,30,31,32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1588,10 +1600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK10"/>
+  <dimension ref="A1:AK11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AK21" sqref="AK21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1848,7 +1860,7 @@
         <v>43</v>
       </c>
       <c r="AK2">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.15">
@@ -1952,13 +1964,13 @@
         <v>5</v>
       </c>
       <c r="AH3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI3">
         <v>2</v>
       </c>
       <c r="AK3">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.15">
@@ -2056,10 +2068,10 @@
         <v>1</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI4">
         <v>1</v>
@@ -2160,10 +2172,10 @@
         <v>1</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI5">
         <v>2</v>
@@ -2270,10 +2282,10 @@
         <v>2</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI6">
         <v>1</v>
@@ -2380,10 +2392,10 @@
         <v>1</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI7">
         <v>1</v>
@@ -2490,10 +2502,10 @@
         <v>1</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI8">
         <v>1</v>
@@ -2600,10 +2612,10 @@
         <v>1</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI9">
         <v>1</v>
@@ -2710,10 +2722,10 @@
         <v>1</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI10">
         <v>1</v>
@@ -2722,7 +2734,117 @@
         <v>67</v>
       </c>
       <c r="AK10">
-        <v>0.35</v>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11">
+        <v>10000</v>
+      </c>
+      <c r="E11">
+        <v>20000</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>700</v>
+      </c>
+      <c r="H11">
+        <v>50</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.25</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>30</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <v>25</v>
+      </c>
+      <c r="V11">
+        <v>1.5</v>
+      </c>
+      <c r="W11">
+        <v>35</v>
+      </c>
+      <c r="X11">
+        <v>2.8</v>
+      </c>
+      <c r="Y11">
+        <v>0.7</v>
+      </c>
+      <c r="Z11">
+        <v>2.5</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>5</v>
+      </c>
+      <c r="AH11">
+        <v>7</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK11">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -968,7 +968,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1228,6 +1228,18 @@
   </si>
   <si>
     <t>29,30,31,32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Rock Golem_Unlit_Masktint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33,34</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1600,10 +1612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AK12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AK21" sqref="AK21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2847,6 +2859,116 @@
         <v>0.3</v>
       </c>
     </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12">
+        <v>10000</v>
+      </c>
+      <c r="E12">
+        <v>20000</v>
+      </c>
+      <c r="F12">
+        <v>80</v>
+      </c>
+      <c r="G12">
+        <v>700</v>
+      </c>
+      <c r="H12">
+        <v>50</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.25</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>30</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <v>25</v>
+      </c>
+      <c r="V12">
+        <v>1.5</v>
+      </c>
+      <c r="W12">
+        <v>35</v>
+      </c>
+      <c r="X12">
+        <v>2.8</v>
+      </c>
+      <c r="Y12">
+        <v>0.5</v>
+      </c>
+      <c r="Z12">
+        <v>2.5</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>5</v>
+      </c>
+      <c r="AH12">
+        <v>7</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK12">
+        <v>0.3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1239,7 +1239,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>33,34</t>
+    <t>33,34,35</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1615,7 +1615,7 @@
   <dimension ref="A1:AK12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AK21" sqref="AK21"/>
+      <selection activeCell="AJ19" sqref="AJ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -968,7 +968,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1239,7 +1239,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>33,34,35</t>
+    <t>33,34,35,36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Elf Ranger_Lit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1612,10 +1620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK12"/>
+  <dimension ref="A1:AK13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AJ19" sqref="AJ19"/>
+      <selection activeCell="AK21" sqref="AK21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2306,7 +2314,7 @@
         <v>55</v>
       </c>
       <c r="AK6">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.15">
@@ -2966,6 +2974,119 @@
         <v>73</v>
       </c>
       <c r="AK12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13">
+        <v>100000</v>
+      </c>
+      <c r="E13">
+        <v>20000</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>700</v>
+      </c>
+      <c r="H13">
+        <v>30</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.25</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>30</v>
+      </c>
+      <c r="T13">
+        <v>2</v>
+      </c>
+      <c r="U13">
+        <v>25</v>
+      </c>
+      <c r="V13">
+        <v>1.5</v>
+      </c>
+      <c r="W13">
+        <v>35</v>
+      </c>
+      <c r="X13">
+        <v>2.8</v>
+      </c>
+      <c r="Y13">
+        <v>0.7</v>
+      </c>
+      <c r="Z13">
+        <v>2.5</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB13">
+        <v>4</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AF13">
+        <v>2</v>
+      </c>
+      <c r="AG13">
+        <v>5</v>
+      </c>
+      <c r="AH13">
+        <v>7</v>
+      </c>
+      <c r="AI13">
+        <v>1</v>
+      </c>
+      <c r="AJ13">
+        <v>37</v>
+      </c>
+      <c r="AK13">
         <v>0.3</v>
       </c>
     </row>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -968,7 +968,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1248,6 +1248,10 @@
   </si>
   <si>
     <t>Hero/Elf Ranger_Lit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,38,39,40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1622,8 +1626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AK21" sqref="AK21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AJ21" sqref="AJ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3030,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S13">
         <v>30</v>
@@ -3083,8 +3087,8 @@
       <c r="AI13">
         <v>1</v>
       </c>
-      <c r="AJ13">
-        <v>37</v>
+      <c r="AJ13" t="s">
+        <v>76</v>
       </c>
       <c r="AK13">
         <v>0.3</v>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -968,7 +968,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="80">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1252,6 +1252,18 @@
   </si>
   <si>
     <t>37,38,39,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Battle Owl_Unlit_MaskTint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1624,10 +1636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK13"/>
+  <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ21" sqref="AJ21"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3094,6 +3106,116 @@
         <v>0.3</v>
       </c>
     </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14">
+        <v>100000</v>
+      </c>
+      <c r="E14">
+        <v>20000</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>700</v>
+      </c>
+      <c r="H14">
+        <v>30</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.25</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>3</v>
+      </c>
+      <c r="S14">
+        <v>30</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
+      <c r="U14">
+        <v>25</v>
+      </c>
+      <c r="V14">
+        <v>1.5</v>
+      </c>
+      <c r="W14">
+        <v>35</v>
+      </c>
+      <c r="X14">
+        <v>2.8</v>
+      </c>
+      <c r="Y14">
+        <v>0.7</v>
+      </c>
+      <c r="Z14">
+        <v>2.5</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB14">
+        <v>4</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>2</v>
+      </c>
+      <c r="AG14">
+        <v>5</v>
+      </c>
+      <c r="AH14">
+        <v>7</v>
+      </c>
+      <c r="AI14">
+        <v>1</v>
+      </c>
+      <c r="AK14">
+        <v>0.3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -968,7 +968,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1264,6 +1264,10 @@
   </si>
   <si>
     <t>1,1.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41,42,43,44</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1638,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AC18" sqref="AC18"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AJ22" sqref="AJ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3180,7 +3184,7 @@
         <v>2.8</v>
       </c>
       <c r="Y14">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="Z14">
         <v>2.5</v>
@@ -3212,8 +3216,11 @@
       <c r="AI14">
         <v>1</v>
       </c>
+      <c r="AJ14" t="s">
+        <v>80</v>
+      </c>
       <c r="AK14">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1267,7 +1267,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>41,42,43,44</t>
+    <t>41,42,43,44,45</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1642,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AJ22" sqref="AJ22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2004,7 +2004,7 @@
         <v>5</v>
       </c>
       <c r="AH3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AI3">
         <v>2</v>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -968,7 +968,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="84">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1268,6 +1268,18 @@
   </si>
   <si>
     <t>41,42,43,44,45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Fire_Demon_Red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1640,10 +1652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK14"/>
+  <dimension ref="A1:AK15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AE28" sqref="AE28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3223,6 +3235,116 @@
         <v>0.25</v>
       </c>
     </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15">
+        <v>100000</v>
+      </c>
+      <c r="E15">
+        <v>20000</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>700</v>
+      </c>
+      <c r="H15">
+        <v>30</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.25</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>30</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <v>25</v>
+      </c>
+      <c r="V15">
+        <v>1.5</v>
+      </c>
+      <c r="W15">
+        <v>35</v>
+      </c>
+      <c r="X15">
+        <v>2.8</v>
+      </c>
+      <c r="Y15">
+        <v>0.6</v>
+      </c>
+      <c r="Z15">
+        <v>2.5</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB15">
+        <v>4</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>2</v>
+      </c>
+      <c r="AG15">
+        <v>5</v>
+      </c>
+      <c r="AH15">
+        <v>7</v>
+      </c>
+      <c r="AI15">
+        <v>1</v>
+      </c>
+      <c r="AK15">
+        <v>0.3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -968,7 +968,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1280,6 +1280,10 @@
   </si>
   <si>
     <t>1.8,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46,47,48</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1655,7 +1659,7 @@
   <dimension ref="A1:AK15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AE28" sqref="AE28"/>
+      <selection activeCell="AK19" sqref="AK19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3341,6 +3345,9 @@
       <c r="AI15">
         <v>1</v>
       </c>
+      <c r="AJ15" t="s">
+        <v>84</v>
+      </c>
       <c r="AK15">
         <v>0.3</v>
       </c>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -968,7 +968,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="87">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1283,7 +1283,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>46,47,48</t>
+    <t>46,47,48,49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Berserker_Unlit_Masktint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1656,10 +1664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK15"/>
+  <dimension ref="A1:AK16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AK19" sqref="AK19"/>
+      <selection activeCell="AI26" sqref="AI26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3352,6 +3360,116 @@
         <v>0.3</v>
       </c>
     </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16">
+        <v>10000</v>
+      </c>
+      <c r="E16">
+        <v>20000</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <v>700</v>
+      </c>
+      <c r="H16">
+        <v>30</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.25</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>30</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="U16">
+        <v>25</v>
+      </c>
+      <c r="V16">
+        <v>1.5</v>
+      </c>
+      <c r="W16">
+        <v>35</v>
+      </c>
+      <c r="X16">
+        <v>2.8</v>
+      </c>
+      <c r="Y16">
+        <v>0.5</v>
+      </c>
+      <c r="Z16">
+        <v>2.5</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AG16">
+        <v>5</v>
+      </c>
+      <c r="AH16">
+        <v>7</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
+      </c>
+      <c r="AJ16">
+        <v>50</v>
+      </c>
+      <c r="AK16">
+        <v>0.25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -968,7 +968,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="88">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1292,6 +1292,10 @@
   </si>
   <si>
     <t>Hero/Berserker_Unlit_Masktint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,51,52,53,54</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1667,7 +1671,7 @@
   <dimension ref="A1:AK16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AI26" sqref="AI26"/>
+      <selection activeCell="AH44" sqref="AH44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3463,8 +3467,8 @@
       <c r="AI16">
         <v>1</v>
       </c>
-      <c r="AJ16">
-        <v>50</v>
+      <c r="AJ16" t="s">
+        <v>87</v>
       </c>
       <c r="AK16">
         <v>0.25</v>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -968,7 +968,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="91">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1296,6 +1296,18 @@
   </si>
   <si>
     <t>50,51,52,53,54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/HeadHunter_Unlit_Masktint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8,1.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1668,10 +1680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK16"/>
+  <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AH44" sqref="AH44"/>
+      <selection activeCell="AK26" sqref="AK26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3474,6 +3486,119 @@
         <v>0.25</v>
       </c>
     </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17">
+        <v>100000</v>
+      </c>
+      <c r="E17">
+        <v>20000</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>700</v>
+      </c>
+      <c r="H17">
+        <v>30</v>
+      </c>
+      <c r="I17">
+        <v>7</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.25</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>30</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>25</v>
+      </c>
+      <c r="V17">
+        <v>1.5</v>
+      </c>
+      <c r="W17">
+        <v>35</v>
+      </c>
+      <c r="X17">
+        <v>2.8</v>
+      </c>
+      <c r="Y17">
+        <v>0.5</v>
+      </c>
+      <c r="Z17">
+        <v>2.5</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB17">
+        <v>10</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AF17">
+        <v>2</v>
+      </c>
+      <c r="AG17">
+        <v>5</v>
+      </c>
+      <c r="AH17">
+        <v>7</v>
+      </c>
+      <c r="AI17">
+        <v>1</v>
+      </c>
+      <c r="AJ17">
+        <v>55</v>
+      </c>
+      <c r="AK17">
+        <v>0.25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -968,7 +968,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1308,6 +1308,10 @@
   </si>
   <si>
     <t>1.8,1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55,56</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1683,7 +1687,7 @@
   <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AK26" sqref="AK26"/>
+      <selection activeCell="AK25" sqref="AK25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3592,8 +3596,8 @@
       <c r="AI17">
         <v>1</v>
       </c>
-      <c r="AJ17">
-        <v>55</v>
+      <c r="AJ17" t="s">
+        <v>91</v>
       </c>
       <c r="AK17">
         <v>0.25</v>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1311,7 +1311,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>55,56</t>
+    <t>55,56,57,58</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1687,7 +1687,7 @@
   <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AK25" sqref="AK25"/>
+      <selection activeCell="AK23" sqref="AK23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -968,7 +968,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="95">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1312,6 +1312,18 @@
   </si>
   <si>
     <t>55,56,57,58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Grunt_Unlit_Masktint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59,60,61,62</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1684,10 +1696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK17"/>
+  <dimension ref="A1:AK18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AK23" sqref="AK23"/>
+      <selection activeCell="AJ26" sqref="AJ26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3603,6 +3615,116 @@
         <v>0.25</v>
       </c>
     </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18">
+        <v>10000</v>
+      </c>
+      <c r="E18">
+        <v>20000</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>700</v>
+      </c>
+      <c r="H18">
+        <v>50</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.25</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>30</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="U18">
+        <v>25</v>
+      </c>
+      <c r="V18">
+        <v>1.5</v>
+      </c>
+      <c r="W18">
+        <v>35</v>
+      </c>
+      <c r="X18">
+        <v>2.8</v>
+      </c>
+      <c r="Y18">
+        <v>0.5</v>
+      </c>
+      <c r="Z18">
+        <v>2.5</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AF18">
+        <v>1</v>
+      </c>
+      <c r="AG18">
+        <v>5</v>
+      </c>
+      <c r="AH18">
+        <v>7</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK18">
+        <v>0.35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -968,7 +968,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="97">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1324,6 +1324,14 @@
   </si>
   <si>
     <t>59,60,61,62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月骑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/HogRider_Unlit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1696,10 +1704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK18"/>
+  <dimension ref="A1:AK19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AJ26" sqref="AJ26"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AK28" sqref="AK28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3725,6 +3733,116 @@
         <v>0.35</v>
       </c>
     </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19">
+        <v>100000</v>
+      </c>
+      <c r="E19">
+        <v>20000</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <v>700</v>
+      </c>
+      <c r="H19">
+        <v>30</v>
+      </c>
+      <c r="I19">
+        <v>3.5</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.25</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+      <c r="S19">
+        <v>30</v>
+      </c>
+      <c r="T19">
+        <v>2</v>
+      </c>
+      <c r="U19">
+        <v>25</v>
+      </c>
+      <c r="V19">
+        <v>1.5</v>
+      </c>
+      <c r="W19">
+        <v>35</v>
+      </c>
+      <c r="X19">
+        <v>2.8</v>
+      </c>
+      <c r="Y19">
+        <v>0.7</v>
+      </c>
+      <c r="Z19">
+        <v>2.5</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB19">
+        <v>4</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AF19">
+        <v>2</v>
+      </c>
+      <c r="AG19">
+        <v>5</v>
+      </c>
+      <c r="AH19">
+        <v>7</v>
+      </c>
+      <c r="AI19">
+        <v>1</v>
+      </c>
+      <c r="AK19">
+        <v>0.3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -968,7 +968,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="98">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1332,6 +1332,10 @@
   </si>
   <si>
     <t>Hero/HogRider_Unlit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63,64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1706,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AK28" sqref="AK28"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AK26" sqref="AK26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3839,6 +3843,9 @@
       <c r="AI19">
         <v>1</v>
       </c>
+      <c r="AJ19" t="s">
+        <v>97</v>
+      </c>
       <c r="AK19">
         <v>0.3</v>
       </c>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1335,7 +1335,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>63,64</t>
+    <t>63,64,65,66</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1711,7 +1711,7 @@
   <dimension ref="A1:AK19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AK26" sqref="AK26"/>
+      <selection activeCell="AF38" sqref="AF38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -968,7 +968,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="101">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1336,6 +1336,18 @@
   </si>
   <si>
     <t>63,64,65,66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Drake_Unlit_Masktint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67,68,69,70</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1708,10 +1720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK19"/>
+  <dimension ref="A1:AK20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AF38" sqref="AF38"/>
+      <selection activeCell="AK26" sqref="AK26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2303,7 +2315,7 @@
         <v>47</v>
       </c>
       <c r="D6">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="E6">
         <v>20000</v>
@@ -3076,7 +3088,7 @@
         <v>75</v>
       </c>
       <c r="D13">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="E13">
         <v>20000</v>
@@ -3189,7 +3201,7 @@
         <v>77</v>
       </c>
       <c r="D14">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="E14">
         <v>20000</v>
@@ -3302,7 +3314,7 @@
         <v>82</v>
       </c>
       <c r="D15">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="E15">
         <v>20000</v>
@@ -3525,7 +3537,7 @@
         <v>89</v>
       </c>
       <c r="D17">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="E17">
         <v>20000</v>
@@ -3748,7 +3760,7 @@
         <v>96</v>
       </c>
       <c r="D19">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="E19">
         <v>20000</v>
@@ -3847,6 +3859,119 @@
         <v>97</v>
       </c>
       <c r="AK19">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20">
+        <v>10000</v>
+      </c>
+      <c r="E20">
+        <v>20000</v>
+      </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="G20">
+        <v>700</v>
+      </c>
+      <c r="H20">
+        <v>30</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.25</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>30</v>
+      </c>
+      <c r="T20">
+        <v>2</v>
+      </c>
+      <c r="U20">
+        <v>25</v>
+      </c>
+      <c r="V20">
+        <v>1.5</v>
+      </c>
+      <c r="W20">
+        <v>35</v>
+      </c>
+      <c r="X20">
+        <v>2.8</v>
+      </c>
+      <c r="Y20">
+        <v>0.5</v>
+      </c>
+      <c r="Z20">
+        <v>2.5</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB20">
+        <v>4</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
+      <c r="AF20">
+        <v>2</v>
+      </c>
+      <c r="AG20">
+        <v>5</v>
+      </c>
+      <c r="AH20">
+        <v>7</v>
+      </c>
+      <c r="AI20">
+        <v>1</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK20">
         <v>0.3</v>
       </c>
     </row>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -968,7 +968,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="104">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1348,6 +1348,18 @@
   </si>
   <si>
     <t>67,68,69,70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Warrior_Unlit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71,72,73,74</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1720,10 +1732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK20"/>
+  <dimension ref="A1:AK21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AK26" sqref="AK26"/>
+      <selection activeCell="AJ33" sqref="AJ33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3975,6 +3987,119 @@
         <v>0.3</v>
       </c>
     </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21">
+        <v>10000</v>
+      </c>
+      <c r="E21">
+        <v>20000</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21">
+        <v>700</v>
+      </c>
+      <c r="H21">
+        <v>30</v>
+      </c>
+      <c r="I21">
+        <v>7</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.25</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>3</v>
+      </c>
+      <c r="S21">
+        <v>30</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <v>25</v>
+      </c>
+      <c r="V21">
+        <v>1.5</v>
+      </c>
+      <c r="W21">
+        <v>35</v>
+      </c>
+      <c r="X21">
+        <v>2.8</v>
+      </c>
+      <c r="Y21">
+        <v>0.5</v>
+      </c>
+      <c r="Z21">
+        <v>2.5</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB21">
+        <v>4</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
+      <c r="AF21">
+        <v>2</v>
+      </c>
+      <c r="AG21">
+        <v>5</v>
+      </c>
+      <c r="AH21">
+        <v>7</v>
+      </c>
+      <c r="AI21">
+        <v>1</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK21">
+        <v>0.3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -968,16 +969,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="107">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hero/hero1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ModeType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1155,10 +1152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hero/Footman_Lit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小黑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1360,6 +1353,26 @@
   </si>
   <si>
     <t>71,72,73,74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Sand_Pillar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Knight_LitMaskTint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘟疫法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Lich_LitMaskTint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75,76,77,78</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1732,10 +1745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK21"/>
+  <dimension ref="A1:AK22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AJ33" sqref="AJ33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1777,112 +1790,112 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="AG1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="AJ1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.15">
@@ -1890,10 +1903,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>10000</v>
@@ -1968,10 +1981,10 @@
         <v>0</v>
       </c>
       <c r="AC2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD2" t="s">
         <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
       </c>
       <c r="AE2">
         <v>1</v>
@@ -1989,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="AJ2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AK2">
         <v>0.25</v>
@@ -2000,10 +2013,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3">
         <v>1000</v>
@@ -2075,16 +2088,16 @@
         <v>2.5</v>
       </c>
       <c r="AA3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB3">
         <v>5</v>
       </c>
       <c r="AC3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AD3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AE3">
         <v>2</v>
@@ -2110,10 +2123,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="D4">
         <v>1000</v>
@@ -2188,10 +2201,10 @@
         <v>0</v>
       </c>
       <c r="AC4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD4" t="s">
         <v>34</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>35</v>
       </c>
       <c r="AE4">
         <v>1</v>
@@ -2209,7 +2222,7 @@
         <v>1</v>
       </c>
       <c r="AJ4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK4">
         <v>0.3</v>
@@ -2220,10 +2233,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -2321,10 +2334,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6">
         <v>10000</v>
@@ -2396,16 +2409,16 @@
         <v>2.5</v>
       </c>
       <c r="AA6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB6">
         <v>4</v>
       </c>
       <c r="AC6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AD6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AE6">
         <v>1</v>
@@ -2423,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="AJ6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AK6">
         <v>0.3</v>
@@ -2434,10 +2447,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7">
         <v>10000</v>
@@ -2512,10 +2525,10 @@
         <v>0</v>
       </c>
       <c r="AC7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD7" t="s">
         <v>34</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>35</v>
       </c>
       <c r="AE7">
         <v>1</v>
@@ -2533,7 +2546,7 @@
         <v>1</v>
       </c>
       <c r="AJ7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AK7">
         <v>0.35</v>
@@ -2544,10 +2557,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D8">
         <v>1000</v>
@@ -2622,10 +2635,10 @@
         <v>0</v>
       </c>
       <c r="AC8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD8" t="s">
         <v>34</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>35</v>
       </c>
       <c r="AE8">
         <v>1</v>
@@ -2643,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="AJ8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AK8">
         <v>0.4</v>
@@ -2654,10 +2667,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D9">
         <v>10000</v>
@@ -2732,10 +2745,10 @@
         <v>0</v>
       </c>
       <c r="AC9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD9" t="s">
         <v>34</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>35</v>
       </c>
       <c r="AE9">
         <v>1</v>
@@ -2753,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="AJ9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AK9">
         <v>0.35</v>
@@ -2764,10 +2777,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10">
         <v>10000</v>
@@ -2842,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="AC10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD10" t="s">
         <v>34</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>35</v>
       </c>
       <c r="AE10">
         <v>1</v>
@@ -2863,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="AJ10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AK10">
         <v>0.25</v>
@@ -2874,10 +2887,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D11">
         <v>10000</v>
@@ -2952,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="AC11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD11" t="s">
         <v>34</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>35</v>
       </c>
       <c r="AE11">
         <v>1</v>
@@ -2973,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="AJ11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AK11">
         <v>0.3</v>
@@ -2984,10 +2997,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D12">
         <v>10000</v>
@@ -3062,10 +3075,10 @@
         <v>0</v>
       </c>
       <c r="AC12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD12" t="s">
         <v>34</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>35</v>
       </c>
       <c r="AE12">
         <v>1</v>
@@ -3083,7 +3096,7 @@
         <v>1</v>
       </c>
       <c r="AJ12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AK12">
         <v>0.3</v>
@@ -3094,10 +3107,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D13">
         <v>10000</v>
@@ -3169,16 +3182,16 @@
         <v>2.5</v>
       </c>
       <c r="AA13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB13">
         <v>4</v>
       </c>
       <c r="AC13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AD13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AE13">
         <v>1</v>
@@ -3196,7 +3209,7 @@
         <v>1</v>
       </c>
       <c r="AJ13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AK13">
         <v>0.3</v>
@@ -3207,10 +3220,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D14">
         <v>10000</v>
@@ -3282,16 +3295,16 @@
         <v>2.5</v>
       </c>
       <c r="AA14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB14">
         <v>4</v>
       </c>
       <c r="AC14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AD14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AE14">
         <v>1</v>
@@ -3309,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AK14">
         <v>0.25</v>
@@ -3320,10 +3333,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D15">
         <v>10000</v>
@@ -3395,16 +3408,16 @@
         <v>2.5</v>
       </c>
       <c r="AA15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB15">
         <v>4</v>
       </c>
       <c r="AC15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AD15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AE15">
         <v>1</v>
@@ -3422,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="AJ15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AK15">
         <v>0.3</v>
@@ -3433,10 +3446,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D16">
         <v>10000</v>
@@ -3511,10 +3524,10 @@
         <v>0</v>
       </c>
       <c r="AC16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD16" t="s">
         <v>34</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>35</v>
       </c>
       <c r="AE16">
         <v>1</v>
@@ -3532,7 +3545,7 @@
         <v>1</v>
       </c>
       <c r="AJ16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AK16">
         <v>0.25</v>
@@ -3543,10 +3556,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D17">
         <v>10000</v>
@@ -3618,16 +3631,16 @@
         <v>2.5</v>
       </c>
       <c r="AA17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB17">
         <v>10</v>
       </c>
       <c r="AC17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AD17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AE17">
         <v>1</v>
@@ -3645,7 +3658,7 @@
         <v>1</v>
       </c>
       <c r="AJ17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AK17">
         <v>0.25</v>
@@ -3656,10 +3669,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D18">
         <v>10000</v>
@@ -3734,10 +3747,10 @@
         <v>0</v>
       </c>
       <c r="AC18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD18" t="s">
         <v>34</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>35</v>
       </c>
       <c r="AE18">
         <v>1</v>
@@ -3755,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="AJ18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK18">
         <v>0.35</v>
@@ -3766,10 +3779,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D19">
         <v>10000</v>
@@ -3841,16 +3854,16 @@
         <v>2.5</v>
       </c>
       <c r="AA19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB19">
         <v>4</v>
       </c>
       <c r="AC19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AD19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AE19">
         <v>1</v>
@@ -3868,7 +3881,7 @@
         <v>1</v>
       </c>
       <c r="AJ19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AK19">
         <v>0.3</v>
@@ -3879,10 +3892,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D20">
         <v>10000</v>
@@ -3954,16 +3967,16 @@
         <v>2.5</v>
       </c>
       <c r="AA20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB20">
         <v>4</v>
       </c>
       <c r="AC20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AD20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AE20">
         <v>1</v>
@@ -3981,7 +3994,7 @@
         <v>1</v>
       </c>
       <c r="AJ20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AK20">
         <v>0.3</v>
@@ -3992,10 +4005,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D21">
         <v>10000</v>
@@ -4067,16 +4080,16 @@
         <v>2.5</v>
       </c>
       <c r="AA21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB21">
         <v>4</v>
       </c>
       <c r="AC21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AD21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AE21">
         <v>1</v>
@@ -4094,9 +4107,122 @@
         <v>1</v>
       </c>
       <c r="AJ21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AK21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22">
+        <v>10000</v>
+      </c>
+      <c r="E22">
+        <v>20000</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <v>700</v>
+      </c>
+      <c r="H22">
+        <v>30</v>
+      </c>
+      <c r="I22">
+        <v>7</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.25</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>3</v>
+      </c>
+      <c r="S22">
+        <v>30</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <v>25</v>
+      </c>
+      <c r="V22">
+        <v>1.5</v>
+      </c>
+      <c r="W22">
+        <v>35</v>
+      </c>
+      <c r="X22">
+        <v>2.8</v>
+      </c>
+      <c r="Y22">
+        <v>0.7</v>
+      </c>
+      <c r="Z22">
+        <v>2.5</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB22">
+        <v>4</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+      <c r="AF22">
+        <v>2</v>
+      </c>
+      <c r="AG22">
+        <v>5</v>
+      </c>
+      <c r="AH22">
+        <v>7</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK22">
         <v>0.3</v>
       </c>
     </row>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -94,7 +94,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-基础HP</t>
+弹道模型</t>
         </r>
       </text>
     </comment>
@@ -120,7 +120,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-基础MP</t>
+弹道速度</t>
         </r>
       </text>
     </comment>
@@ -146,7 +146,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-基础攻击速度(141点攻击速度等于 1.20秒一次)</t>
+基础HP</t>
         </r>
       </text>
     </comment>
@@ -172,7 +172,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-最大攻击速度</t>
+基础MP</t>
         </r>
       </text>
     </comment>
@@ -198,7 +198,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-基础攻击力</t>
+基础攻击速度(141点攻击速度等于 1.20秒一次)</t>
         </r>
       </text>
     </comment>
@@ -224,7 +224,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-基础攻击范围</t>
+最大攻击速度</t>
         </r>
       </text>
     </comment>
@@ -250,7 +250,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-基础移动速度</t>
+基础攻击力</t>
         </r>
       </text>
     </comment>
@@ -276,7 +276,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-基础技能增强</t>
+基础攻击范围</t>
         </r>
       </text>
     </comment>
@@ -302,7 +302,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-基础魔法恢复</t>
+基础移动速度</t>
         </r>
       </text>
     </comment>
@@ -328,7 +328,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-基础物理护甲</t>
+基础技能增强</t>
         </r>
       </text>
     </comment>
@@ -354,7 +354,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-基础魔法抗性</t>
+基础魔法恢复</t>
         </r>
       </text>
     </comment>
@@ -380,7 +380,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-基础状态抗性</t>
+基础物理护甲</t>
         </r>
       </text>
     </comment>
@@ -406,7 +406,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-基础闪避</t>
+基础魔法抗性</t>
         </r>
       </text>
     </comment>
@@ -432,7 +432,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-基础生命恢复</t>
+基础状态抗性</t>
         </r>
       </text>
     </comment>
@@ -458,7 +458,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-主属性(1:力量 2:敏捷 3:智力)</t>
+基础闪避</t>
         </r>
       </text>
     </comment>
@@ -484,7 +484,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-基础力量</t>
+基础生命恢复</t>
         </r>
       </text>
     </comment>
@@ -510,7 +510,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-力量成长</t>
+主属性(1:力量 2:敏捷 3:智力)</t>
         </r>
       </text>
     </comment>
@@ -536,7 +536,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-基础智力</t>
+基础力量</t>
         </r>
       </text>
     </comment>
@@ -562,7 +562,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-智力成长</t>
+力量成长</t>
         </r>
       </text>
     </comment>
@@ -588,7 +588,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-基础敏捷</t>
+基础智力</t>
         </r>
       </text>
     </comment>
@@ -614,7 +614,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-敏捷成长</t>
+智力成长</t>
         </r>
       </text>
     </comment>
@@ -640,7 +640,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-攻击前摇</t>
+基础敏捷</t>
         </r>
       </text>
     </comment>
@@ -666,7 +666,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-前摇不中断攻击范围</t>
+敏捷成长</t>
         </r>
       </text>
     </comment>
@@ -692,7 +692,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-弹道模型</t>
+攻击前摇</t>
         </r>
       </text>
     </comment>
@@ -718,7 +718,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-弹道速度</t>
+前摇不中断攻击范围</t>
         </r>
       </text>
     </comment>
@@ -969,7 +969,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="110">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1062,10 +1062,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>骷髅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AutoAttackTraceRange</t>
   </si>
   <si>
@@ -1132,247 +1128,263 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0,0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Mage_Lit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Worker_Lit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,10,11,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Knight_Lit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,14,15,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Horseman_Lit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17,18,19,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊战士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Druid_Unlit_MaskTint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,22,23,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Demon Hunter Unlit_MaskTint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,26,27,28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Dryad_Unlit_MaskTint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29,30,31,32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Rock Golem_Unlit_Masktint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33,34,35,36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Elf Ranger_Lit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,38,39,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Battle Owl_Unlit_MaskTint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41,42,43,44,45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Fire_Demon_Red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46,47,48,49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Berserker_Unlit_Masktint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,51,52,53,54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/HeadHunter_Unlit_Masktint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8,1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55,56,57,58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Grunt_Unlit_Masktint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59,60,61,62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月骑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/HogRider_Unlit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63,64,65,66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Drake_Unlit_Masktint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67,68,69,70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Warrior_Unlit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71,72,73,74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Sand_Pillar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Knight_LitMaskTint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘟疫法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Lich_LitMaskTint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75,76,77,78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Griffin_MaskTint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程小兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Hero/Archer_Lit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,0.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero/Mage_Lit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero/Worker_Lit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小黑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,10,11,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero/Knight_Lit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13,14,15,16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>混沌骑士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero/Horseman_Lit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17,18,19,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊战士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero/Druid_Unlit_MaskTint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21,22,23,24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血魔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero/Demon Hunter Unlit_MaskTint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,26,27,28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小娜迦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero/Dryad_Unlit_MaskTint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29,30,31,32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero/Rock Golem_Unlit_Masktint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33,34,35,36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero/Elf Ranger_Lit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37,38,39,40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero/Battle Owl_Unlit_MaskTint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帕克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>41,42,43,44,45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影魔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero/Fire_Demon_Red</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.8,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>46,47,48,49</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero/Berserker_Unlit_Masktint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,51,52,53,54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火枪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero/HeadHunter_Unlit_Masktint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.8,1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55,56,57,58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斧王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero/Grunt_Unlit_Masktint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>59,60,61,62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月骑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero/HogRider_Unlit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>63,64,65,66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero/Drake_Unlit_Masktint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>67,68,69,70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝猫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero/Warrior_Unlit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>71,72,73,74</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero/Sand_Pillar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero/Knight_LitMaskTint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瘟疫法师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero/Lich_LitMaskTint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75,76,77,78</t>
+    <t>Bullet/Projectiles/vfx_Projectile_ArrowPoisoned</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1745,39 +1757,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK22"/>
+  <dimension ref="A1:AK23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="4" width="9.125" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="7" width="16.625" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="15.75" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
-    <col min="11" max="11" width="14.875" customWidth="1"/>
-    <col min="12" max="12" width="12.25" customWidth="1"/>
-    <col min="13" max="13" width="15.875" customWidth="1"/>
-    <col min="14" max="14" width="13.75" customWidth="1"/>
-    <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="17" max="17" width="11.375" customWidth="1"/>
-    <col min="18" max="18" width="12.75" customWidth="1"/>
-    <col min="19" max="19" width="17" customWidth="1"/>
-    <col min="20" max="20" width="16.125" customWidth="1"/>
-    <col min="21" max="21" width="18.75" customWidth="1"/>
-    <col min="22" max="22" width="18.375" customWidth="1"/>
-    <col min="23" max="23" width="15.125" customWidth="1"/>
-    <col min="24" max="24" width="14.625" customWidth="1"/>
-    <col min="25" max="25" width="16.625" customWidth="1"/>
-    <col min="26" max="26" width="14.25" customWidth="1"/>
-    <col min="27" max="27" width="19" customWidth="1"/>
-    <col min="28" max="29" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="50.875" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="8" max="9" width="16.625" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="15.75" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="14.875" customWidth="1"/>
+    <col min="14" max="14" width="12.25" customWidth="1"/>
+    <col min="15" max="15" width="15.875" customWidth="1"/>
+    <col min="16" max="16" width="13.75" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="19" max="19" width="11.375" customWidth="1"/>
+    <col min="20" max="20" width="12.75" customWidth="1"/>
+    <col min="21" max="21" width="17" customWidth="1"/>
+    <col min="22" max="22" width="16.125" customWidth="1"/>
+    <col min="23" max="23" width="18.75" customWidth="1"/>
+    <col min="24" max="24" width="18.375" customWidth="1"/>
+    <col min="25" max="25" width="15.125" customWidth="1"/>
+    <col min="26" max="26" width="14.625" customWidth="1"/>
+    <col min="27" max="27" width="16.625" customWidth="1"/>
+    <col min="28" max="28" width="14.25" customWidth="1"/>
+    <col min="29" max="29" width="12.125" customWidth="1"/>
     <col min="30" max="30" width="16.125" customWidth="1"/>
     <col min="31" max="31" width="7.625" customWidth="1"/>
     <col min="32" max="32" width="14" customWidth="1"/>
@@ -1790,112 +1803,112 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="AC1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AG1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="AJ1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.15">
@@ -1903,88 +1916,88 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2">
+        <v>48</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>10000</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>20000</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>100</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>700</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>30</v>
       </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
       <c r="K2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
         <v>0.25</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
         <v>30</v>
       </c>
-      <c r="T2">
-        <v>2</v>
-      </c>
-      <c r="U2">
+      <c r="V2">
+        <v>2</v>
+      </c>
+      <c r="W2">
         <v>25</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>1.5</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>35</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>2.8</v>
       </c>
-      <c r="Y2">
+      <c r="AA2">
         <v>0.7</v>
       </c>
-      <c r="Z2">
+      <c r="AB2">
         <v>2.5</v>
       </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
       <c r="AC2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD2" t="s">
         <v>33</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>34</v>
       </c>
       <c r="AE2">
         <v>1</v>
@@ -2002,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="AJ2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AK2">
         <v>0.25</v>
@@ -2013,61 +2026,58 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3">
+        <v>47</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
         <v>1000</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>300</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>100</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>600</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>50</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>3</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>1.2</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>0.25</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -2082,22 +2092,22 @@
         <v>0</v>
       </c>
       <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
         <v>0.8</v>
       </c>
-      <c r="Z3">
+      <c r="AB3">
         <v>2.5</v>
       </c>
-      <c r="AA3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB3">
-        <v>5</v>
-      </c>
       <c r="AC3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AD3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AE3">
         <v>2</v>
@@ -2126,85 +2136,85 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4">
+        <v>101</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>1000</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>20000</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>120</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>850</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>30</v>
       </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
       <c r="K4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
         <v>0.25</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
         <v>30</v>
       </c>
-      <c r="T4">
-        <v>2</v>
-      </c>
-      <c r="U4">
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
         <v>25</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>1.5</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>35</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>2.8</v>
       </c>
-      <c r="Y4">
+      <c r="AA4">
         <v>0.5</v>
       </c>
-      <c r="Z4">
+      <c r="AB4">
         <v>2.5</v>
       </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
       <c r="AC4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD4" t="s">
         <v>33</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>34</v>
       </c>
       <c r="AE4">
         <v>1</v>
@@ -2222,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="AJ4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AK4">
         <v>0.3</v>
@@ -2233,20 +2243,17 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>200</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
         <v>0</v>
       </c>
@@ -2257,37 +2264,37 @@
         <v>0</v>
       </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>1.2</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -2305,6 +2312,9 @@
         <v>0</v>
       </c>
       <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
@@ -2334,91 +2344,91 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6">
+        <v>108</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
         <v>10000</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>20000</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>100</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>700</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>30</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>7</v>
       </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
       <c r="L6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>0.25</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
         <v>30</v>
       </c>
-      <c r="T6">
-        <v>2</v>
-      </c>
-      <c r="U6">
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
         <v>25</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>1.5</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>35</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>2.8</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <v>0.7</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <v>2.5</v>
       </c>
-      <c r="AA6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB6">
-        <v>4</v>
-      </c>
       <c r="AC6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE6">
         <v>1</v>
@@ -2436,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="AJ6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AK6">
         <v>0.3</v>
@@ -2447,88 +2457,88 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7">
+        <v>53</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>10000</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>20000</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>100</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>700</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>30</v>
       </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
       <c r="K7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <v>0.25</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
         <v>30</v>
       </c>
-      <c r="T7">
-        <v>2</v>
-      </c>
-      <c r="U7">
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
         <v>25</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>1.5</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>35</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>2.8</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <v>0.5</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <v>2.5</v>
       </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
       <c r="AC7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD7" t="s">
         <v>33</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>34</v>
       </c>
       <c r="AE7">
         <v>1</v>
@@ -2546,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="AJ7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AK7">
         <v>0.35</v>
@@ -2557,88 +2567,88 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8">
+        <v>56</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>1000</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>20000</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>100</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>700</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>50</v>
       </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
       <c r="K8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
         <v>0.25</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
         <v>30</v>
       </c>
-      <c r="T8">
-        <v>2</v>
-      </c>
-      <c r="U8">
+      <c r="V8">
+        <v>2</v>
+      </c>
+      <c r="W8">
         <v>25</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>1.5</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>35</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>2.8</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
         <v>0.5</v>
       </c>
-      <c r="Z8">
+      <c r="AB8">
         <v>2.5</v>
       </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
       <c r="AC8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD8" t="s">
         <v>33</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>34</v>
       </c>
       <c r="AE8">
         <v>1</v>
@@ -2656,7 +2666,7 @@
         <v>1</v>
       </c>
       <c r="AJ8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AK8">
         <v>0.4</v>
@@ -2667,88 +2677,88 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9">
+        <v>59</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>10000</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>20000</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>100</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>700</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>50</v>
       </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
       <c r="K9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
         <v>0.25</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
         <v>30</v>
       </c>
-      <c r="T9">
-        <v>2</v>
-      </c>
-      <c r="U9">
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
         <v>25</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>1.5</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>35</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>2.8</v>
       </c>
-      <c r="Y9">
+      <c r="AA9">
         <v>0.5</v>
       </c>
-      <c r="Z9">
+      <c r="AB9">
         <v>2.5</v>
       </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
       <c r="AC9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD9" t="s">
         <v>33</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>34</v>
       </c>
       <c r="AE9">
         <v>1</v>
@@ -2766,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="AJ9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AK9">
         <v>0.35</v>
@@ -2777,88 +2787,88 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10">
+        <v>62</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>10000</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>20000</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>100</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>700</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>50</v>
       </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
       <c r="K10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
         <v>0.25</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10">
         <v>30</v>
       </c>
-      <c r="T10">
-        <v>2</v>
-      </c>
-      <c r="U10">
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10">
         <v>25</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>1.5</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>35</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>2.8</v>
       </c>
-      <c r="Y10">
+      <c r="AA10">
         <v>0.5</v>
       </c>
-      <c r="Z10">
+      <c r="AB10">
         <v>2.5</v>
       </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
       <c r="AC10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD10" t="s">
         <v>33</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>34</v>
       </c>
       <c r="AE10">
         <v>1</v>
@@ -2876,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="AJ10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AK10">
         <v>0.25</v>
@@ -2887,88 +2897,88 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11">
+        <v>65</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>10000</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>20000</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>100</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>700</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>50</v>
       </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
       <c r="K11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
         <v>0.25</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="U11">
         <v>30</v>
       </c>
-      <c r="T11">
-        <v>2</v>
-      </c>
-      <c r="U11">
+      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="W11">
         <v>25</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>1.5</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>35</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>2.8</v>
       </c>
-      <c r="Y11">
+      <c r="AA11">
         <v>0.7</v>
       </c>
-      <c r="Z11">
+      <c r="AB11">
         <v>2.5</v>
       </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
       <c r="AC11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD11" t="s">
         <v>33</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>34</v>
       </c>
       <c r="AE11">
         <v>1</v>
@@ -2986,7 +2996,7 @@
         <v>1</v>
       </c>
       <c r="AJ11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK11">
         <v>0.3</v>
@@ -2997,88 +3007,88 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12">
+        <v>68</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>10000</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>20000</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>80</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>700</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>50</v>
       </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
       <c r="K12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
         <v>0.25</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
         <v>30</v>
       </c>
-      <c r="T12">
-        <v>2</v>
-      </c>
-      <c r="U12">
+      <c r="V12">
+        <v>2</v>
+      </c>
+      <c r="W12">
         <v>25</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>1.5</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <v>35</v>
       </c>
-      <c r="X12">
+      <c r="Z12">
         <v>2.8</v>
       </c>
-      <c r="Y12">
+      <c r="AA12">
         <v>0.5</v>
       </c>
-      <c r="Z12">
+      <c r="AB12">
         <v>2.5</v>
       </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
       <c r="AC12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD12" t="s">
         <v>33</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>34</v>
       </c>
       <c r="AE12">
         <v>1</v>
@@ -3096,7 +3106,7 @@
         <v>1</v>
       </c>
       <c r="AJ12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AK12">
         <v>0.3</v>
@@ -3107,91 +3117,91 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13">
+        <v>71</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
         <v>10000</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>20000</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>100</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>700</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>30</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>7</v>
       </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
       <c r="L13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
         <v>0.25</v>
       </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
         <v>3</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>30</v>
       </c>
-      <c r="T13">
-        <v>2</v>
-      </c>
-      <c r="U13">
+      <c r="V13">
+        <v>2</v>
+      </c>
+      <c r="W13">
         <v>25</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>1.5</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <v>35</v>
       </c>
-      <c r="X13">
+      <c r="Z13">
         <v>2.8</v>
       </c>
-      <c r="Y13">
+      <c r="AA13">
         <v>0.7</v>
       </c>
-      <c r="Z13">
+      <c r="AB13">
         <v>2.5</v>
       </c>
-      <c r="AA13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB13">
-        <v>4</v>
-      </c>
       <c r="AC13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AD13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE13">
         <v>1</v>
@@ -3209,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="AJ13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AK13">
         <v>0.3</v>
@@ -3220,91 +3230,91 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>10000</v>
+      </c>
+      <c r="G14">
+        <v>20000</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <v>700</v>
+      </c>
+      <c r="J14">
+        <v>30</v>
+      </c>
+      <c r="K14">
+        <v>7</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.25</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>3</v>
+      </c>
+      <c r="U14">
+        <v>30</v>
+      </c>
+      <c r="V14">
+        <v>2</v>
+      </c>
+      <c r="W14">
+        <v>25</v>
+      </c>
+      <c r="X14">
+        <v>1.5</v>
+      </c>
+      <c r="Y14">
+        <v>35</v>
+      </c>
+      <c r="Z14">
+        <v>2.8</v>
+      </c>
+      <c r="AA14">
+        <v>0.8</v>
+      </c>
+      <c r="AB14">
+        <v>2.5</v>
+      </c>
+      <c r="AC14" t="s">
         <v>75</v>
       </c>
-      <c r="D14">
-        <v>10000</v>
-      </c>
-      <c r="E14">
-        <v>20000</v>
-      </c>
-      <c r="F14">
-        <v>100</v>
-      </c>
-      <c r="G14">
-        <v>700</v>
-      </c>
-      <c r="H14">
-        <v>30</v>
-      </c>
-      <c r="I14">
-        <v>7</v>
-      </c>
-      <c r="J14">
-        <v>2</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0.25</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>3</v>
-      </c>
-      <c r="S14">
-        <v>30</v>
-      </c>
-      <c r="T14">
-        <v>2</v>
-      </c>
-      <c r="U14">
-        <v>25</v>
-      </c>
-      <c r="V14">
-        <v>1.5</v>
-      </c>
-      <c r="W14">
-        <v>35</v>
-      </c>
-      <c r="X14">
-        <v>2.8</v>
-      </c>
-      <c r="Y14">
-        <v>0.8</v>
-      </c>
-      <c r="Z14">
-        <v>2.5</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB14">
-        <v>4</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>77</v>
-      </c>
       <c r="AD14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE14">
         <v>1</v>
@@ -3322,7 +3332,7 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AK14">
         <v>0.25</v>
@@ -3333,91 +3343,91 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>10000</v>
+      </c>
+      <c r="G15">
+        <v>20000</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>700</v>
+      </c>
+      <c r="J15">
+        <v>30</v>
+      </c>
+      <c r="K15">
+        <v>7</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.25</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <v>30</v>
+      </c>
+      <c r="V15">
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <v>25</v>
+      </c>
+      <c r="X15">
+        <v>1.5</v>
+      </c>
+      <c r="Y15">
+        <v>35</v>
+      </c>
+      <c r="Z15">
+        <v>2.8</v>
+      </c>
+      <c r="AA15">
+        <v>0.6</v>
+      </c>
+      <c r="AB15">
+        <v>2.5</v>
+      </c>
+      <c r="AC15" t="s">
         <v>79</v>
       </c>
-      <c r="C15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15">
-        <v>10000</v>
-      </c>
-      <c r="E15">
-        <v>20000</v>
-      </c>
-      <c r="F15">
-        <v>100</v>
-      </c>
-      <c r="G15">
-        <v>700</v>
-      </c>
-      <c r="H15">
-        <v>30</v>
-      </c>
-      <c r="I15">
-        <v>7</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0.25</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>2</v>
-      </c>
-      <c r="S15">
-        <v>30</v>
-      </c>
-      <c r="T15">
-        <v>2</v>
-      </c>
-      <c r="U15">
-        <v>25</v>
-      </c>
-      <c r="V15">
-        <v>1.5</v>
-      </c>
-      <c r="W15">
-        <v>35</v>
-      </c>
-      <c r="X15">
-        <v>2.8</v>
-      </c>
-      <c r="Y15">
-        <v>0.6</v>
-      </c>
-      <c r="Z15">
-        <v>2.5</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB15">
-        <v>4</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>81</v>
-      </c>
       <c r="AD15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE15">
         <v>1</v>
@@ -3435,7 +3445,7 @@
         <v>1</v>
       </c>
       <c r="AJ15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AK15">
         <v>0.3</v>
@@ -3446,88 +3456,88 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16">
+        <v>82</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>10000</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>20000</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>100</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>700</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>30</v>
       </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
       <c r="K16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
         <v>0.25</v>
       </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="U16">
         <v>30</v>
       </c>
-      <c r="T16">
-        <v>2</v>
-      </c>
-      <c r="U16">
+      <c r="V16">
+        <v>2</v>
+      </c>
+      <c r="W16">
         <v>25</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>1.5</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
         <v>35</v>
       </c>
-      <c r="X16">
+      <c r="Z16">
         <v>2.8</v>
       </c>
-      <c r="Y16">
+      <c r="AA16">
         <v>0.5</v>
       </c>
-      <c r="Z16">
+      <c r="AB16">
         <v>2.5</v>
       </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
       <c r="AC16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD16" t="s">
         <v>33</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>34</v>
       </c>
       <c r="AE16">
         <v>1</v>
@@ -3545,7 +3555,7 @@
         <v>1</v>
       </c>
       <c r="AJ16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AK16">
         <v>0.25</v>
@@ -3556,91 +3566,91 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>10000</v>
+      </c>
+      <c r="G17">
+        <v>20000</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="I17">
+        <v>700</v>
+      </c>
+      <c r="J17">
+        <v>30</v>
+      </c>
+      <c r="K17">
+        <v>7</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.25</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>30</v>
+      </c>
+      <c r="V17">
+        <v>2</v>
+      </c>
+      <c r="W17">
+        <v>25</v>
+      </c>
+      <c r="X17">
+        <v>1.5</v>
+      </c>
+      <c r="Y17">
+        <v>35</v>
+      </c>
+      <c r="Z17">
+        <v>2.8</v>
+      </c>
+      <c r="AA17">
+        <v>0.5</v>
+      </c>
+      <c r="AB17">
+        <v>2.5</v>
+      </c>
+      <c r="AC17" t="s">
         <v>86</v>
       </c>
-      <c r="C17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17">
-        <v>10000</v>
-      </c>
-      <c r="E17">
-        <v>20000</v>
-      </c>
-      <c r="F17">
-        <v>100</v>
-      </c>
-      <c r="G17">
-        <v>700</v>
-      </c>
-      <c r="H17">
-        <v>30</v>
-      </c>
-      <c r="I17">
-        <v>7</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0.25</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>2</v>
-      </c>
-      <c r="S17">
-        <v>30</v>
-      </c>
-      <c r="T17">
-        <v>2</v>
-      </c>
-      <c r="U17">
-        <v>25</v>
-      </c>
-      <c r="V17">
-        <v>1.5</v>
-      </c>
-      <c r="W17">
-        <v>35</v>
-      </c>
-      <c r="X17">
-        <v>2.8</v>
-      </c>
-      <c r="Y17">
-        <v>0.5</v>
-      </c>
-      <c r="Z17">
-        <v>2.5</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB17">
-        <v>10</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>88</v>
-      </c>
       <c r="AD17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE17">
         <v>1</v>
@@ -3658,7 +3668,7 @@
         <v>1</v>
       </c>
       <c r="AJ17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AK17">
         <v>0.25</v>
@@ -3669,88 +3679,88 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18">
+        <v>89</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>10000</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>20000</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>100</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>700</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>50</v>
       </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-      <c r="J18">
-        <v>2</v>
-      </c>
       <c r="K18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
         <v>0.25</v>
       </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
         <v>30</v>
       </c>
-      <c r="T18">
-        <v>2</v>
-      </c>
-      <c r="U18">
+      <c r="V18">
+        <v>2</v>
+      </c>
+      <c r="W18">
         <v>25</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <v>1.5</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
         <v>35</v>
       </c>
-      <c r="X18">
+      <c r="Z18">
         <v>2.8</v>
       </c>
-      <c r="Y18">
+      <c r="AA18">
         <v>0.5</v>
       </c>
-      <c r="Z18">
+      <c r="AB18">
         <v>2.5</v>
       </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
       <c r="AC18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD18" t="s">
         <v>33</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>34</v>
       </c>
       <c r="AE18">
         <v>1</v>
@@ -3768,7 +3778,7 @@
         <v>1</v>
       </c>
       <c r="AJ18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AK18">
         <v>0.35</v>
@@ -3779,91 +3789,91 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
         <v>10000</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>20000</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>100</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>700</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>30</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>3.5</v>
       </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
       <c r="L19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
         <v>0.25</v>
       </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>2</v>
+      </c>
+      <c r="U19">
         <v>30</v>
       </c>
-      <c r="T19">
-        <v>2</v>
-      </c>
-      <c r="U19">
+      <c r="V19">
+        <v>2</v>
+      </c>
+      <c r="W19">
         <v>25</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>1.5</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
         <v>35</v>
       </c>
-      <c r="X19">
+      <c r="Z19">
         <v>2.8</v>
       </c>
-      <c r="Y19">
+      <c r="AA19">
         <v>0.7</v>
       </c>
-      <c r="Z19">
+      <c r="AB19">
         <v>2.5</v>
       </c>
-      <c r="AA19" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB19">
-        <v>4</v>
-      </c>
       <c r="AC19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AD19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE19">
         <v>1</v>
@@ -3881,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="AJ19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AK19">
         <v>0.3</v>
@@ -3892,91 +3902,91 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
         <v>10000</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>20000</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>100</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>700</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>30</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>6</v>
       </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
       <c r="L20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
         <v>0.25</v>
       </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>2</v>
+      </c>
+      <c r="U20">
         <v>30</v>
       </c>
-      <c r="T20">
-        <v>2</v>
-      </c>
-      <c r="U20">
+      <c r="V20">
+        <v>2</v>
+      </c>
+      <c r="W20">
         <v>25</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <v>1.5</v>
       </c>
-      <c r="W20">
+      <c r="Y20">
         <v>35</v>
       </c>
-      <c r="X20">
+      <c r="Z20">
         <v>2.8</v>
       </c>
-      <c r="Y20">
+      <c r="AA20">
         <v>0.5</v>
       </c>
-      <c r="Z20">
+      <c r="AB20">
         <v>2.5</v>
       </c>
-      <c r="AA20" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB20">
-        <v>4</v>
-      </c>
       <c r="AC20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AD20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE20">
         <v>1</v>
@@ -3994,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="AJ20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AK20">
         <v>0.3</v>
@@ -4005,91 +4015,91 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>10000</v>
+      </c>
+      <c r="G21">
+        <v>20000</v>
+      </c>
+      <c r="H21">
         <v>100</v>
       </c>
-      <c r="D21">
-        <v>10000</v>
-      </c>
-      <c r="E21">
-        <v>20000</v>
-      </c>
-      <c r="F21">
-        <v>100</v>
-      </c>
-      <c r="G21">
+      <c r="I21">
         <v>700</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>30</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>7</v>
       </c>
-      <c r="J21">
-        <v>2</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
       <c r="L21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
         <v>0.25</v>
       </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
         <v>3</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>30</v>
       </c>
-      <c r="T21">
-        <v>2</v>
-      </c>
-      <c r="U21">
+      <c r="V21">
+        <v>2</v>
+      </c>
+      <c r="W21">
         <v>25</v>
       </c>
-      <c r="V21">
+      <c r="X21">
         <v>1.5</v>
       </c>
-      <c r="W21">
+      <c r="Y21">
         <v>35</v>
       </c>
-      <c r="X21">
+      <c r="Z21">
         <v>2.8</v>
       </c>
-      <c r="Y21">
+      <c r="AA21">
         <v>0.5</v>
       </c>
-      <c r="Z21">
+      <c r="AB21">
         <v>2.5</v>
       </c>
-      <c r="AA21" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB21">
-        <v>4</v>
-      </c>
       <c r="AC21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AD21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE21">
         <v>1</v>
@@ -4107,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="AJ21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AK21">
         <v>0.3</v>
@@ -4118,91 +4128,91 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22">
+        <v>103</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
         <v>10000</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>20000</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>100</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>700</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>30</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>7</v>
       </c>
-      <c r="J22">
-        <v>2</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
       <c r="L22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
         <v>0.25</v>
       </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
         <v>3</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <v>30</v>
       </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
-      <c r="U22">
+      <c r="V22">
+        <v>2</v>
+      </c>
+      <c r="W22">
         <v>25</v>
       </c>
-      <c r="V22">
+      <c r="X22">
         <v>1.5</v>
       </c>
-      <c r="W22">
+      <c r="Y22">
         <v>35</v>
       </c>
-      <c r="X22">
+      <c r="Z22">
         <v>2.8</v>
       </c>
-      <c r="Y22">
+      <c r="AA22">
         <v>0.7</v>
       </c>
-      <c r="Z22">
+      <c r="AB22">
         <v>2.5</v>
       </c>
-      <c r="AA22" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB22">
-        <v>4</v>
-      </c>
       <c r="AC22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AD22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE22">
         <v>1</v>
@@ -4220,9 +4230,119 @@
         <v>1</v>
       </c>
       <c r="AJ22" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK22">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" t="s">
         <v>106</v>
       </c>
-      <c r="AK22">
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>10000</v>
+      </c>
+      <c r="G23">
+        <v>20000</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
+      </c>
+      <c r="I23">
+        <v>700</v>
+      </c>
+      <c r="J23">
+        <v>30</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.25</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>3</v>
+      </c>
+      <c r="U23">
+        <v>30</v>
+      </c>
+      <c r="V23">
+        <v>2</v>
+      </c>
+      <c r="W23">
+        <v>25</v>
+      </c>
+      <c r="X23">
+        <v>1.5</v>
+      </c>
+      <c r="Y23">
+        <v>35</v>
+      </c>
+      <c r="Z23">
+        <v>2.8</v>
+      </c>
+      <c r="AA23">
+        <v>0.7</v>
+      </c>
+      <c r="AB23">
+        <v>2.5</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23">
+        <v>2</v>
+      </c>
+      <c r="AG23">
+        <v>5</v>
+      </c>
+      <c r="AH23">
+        <v>7</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
+      </c>
+      <c r="AK23">
         <v>0.3</v>
       </c>
     </row>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
   <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
@@ -146,7 +146,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-基础HP</t>
+弹道生成点
+x z y</t>
         </r>
       </text>
     </comment>
@@ -172,7 +173,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-基础MP</t>
+弹道结束点
+x z y</t>
         </r>
       </text>
     </comment>
@@ -198,7 +200,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-基础攻击速度(141点攻击速度等于 1.20秒一次)</t>
+基础HP</t>
         </r>
       </text>
     </comment>
@@ -224,7 +226,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-最大攻击速度</t>
+基础MP</t>
         </r>
       </text>
     </comment>
@@ -250,7 +252,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-基础攻击力</t>
+基础攻击速度(141点攻击速度等于 1.20秒一次)</t>
         </r>
       </text>
     </comment>
@@ -276,7 +278,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-基础攻击范围</t>
+最大攻击速度</t>
         </r>
       </text>
     </comment>
@@ -302,7 +304,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-基础移动速度</t>
+基础攻击力</t>
         </r>
       </text>
     </comment>
@@ -328,7 +330,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-基础技能增强</t>
+基础攻击范围</t>
         </r>
       </text>
     </comment>
@@ -354,7 +356,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-基础魔法恢复</t>
+基础移动速度</t>
         </r>
       </text>
     </comment>
@@ -380,7 +382,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-基础物理护甲</t>
+基础技能增强</t>
         </r>
       </text>
     </comment>
@@ -406,7 +408,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-基础魔法抗性</t>
+基础魔法恢复</t>
         </r>
       </text>
     </comment>
@@ -432,7 +434,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-基础状态抗性</t>
+基础物理护甲</t>
         </r>
       </text>
     </comment>
@@ -458,7 +460,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-基础闪避</t>
+基础魔法抗性</t>
         </r>
       </text>
     </comment>
@@ -484,7 +486,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-基础生命恢复</t>
+基础状态抗性</t>
         </r>
       </text>
     </comment>
@@ -510,7 +512,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-主属性(1:力量 2:敏捷 3:智力)</t>
+基础闪避</t>
         </r>
       </text>
     </comment>
@@ -536,7 +538,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-基础力量</t>
+基础生命恢复</t>
         </r>
       </text>
     </comment>
@@ -562,7 +564,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-力量成长</t>
+主属性(1:力量 2:敏捷 3:智力)</t>
         </r>
       </text>
     </comment>
@@ -588,7 +590,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-基础智力</t>
+基础力量</t>
         </r>
       </text>
     </comment>
@@ -614,7 +616,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-智力成长</t>
+力量成长</t>
         </r>
       </text>
     </comment>
@@ -640,7 +642,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-基础敏捷</t>
+基础智力</t>
         </r>
       </text>
     </comment>
@@ -666,7 +668,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-敏捷成长</t>
+智力成长</t>
         </r>
       </text>
     </comment>
@@ -692,7 +694,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-攻击前摇</t>
+基础敏捷</t>
         </r>
       </text>
     </comment>
@@ -718,7 +720,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-前摇不中断攻击范围</t>
+敏捷成长</t>
         </r>
       </text>
     </comment>
@@ -744,11 +746,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-弹道生成点
-1,0.5
-1表示单位正前方1米
-0.5表示单位高度0.5米
-的位置</t>
+攻击前摇</t>
         </r>
       </text>
     </comment>
@@ -774,11 +772,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-弹道结束点
-0,0.5
-0表示单位正前方0米
-0.5表示单位高度0.5米
-的位置</t>
+前摇不中断攻击范围</t>
         </r>
       </text>
     </comment>
@@ -969,7 +963,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="120">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1078,14 +1072,6 @@
     <t>BaseMaxAttackSpeed</t>
   </si>
   <si>
-    <t>1,0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ProjectileEndPos</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1128,14 +1114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,0.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hero/Mage_Lit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1148,10 +1126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9,10,11,12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1248,10 +1222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,1.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>41,42,43,44,45</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1264,10 +1234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.8,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>46,47,48,49</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1292,10 +1258,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.8,1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>55,56,57,58</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1384,7 +1346,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bullet/Projectiles/vfx_Projectile_ArrowPoisoned</t>
+    <t>0,1,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,1.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1.8,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1.8,1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3,0.9,1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.3,0.7,0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1450,9 +1484,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1760,38 +1795,37 @@
   <dimension ref="A1:AK23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="4" width="50.875" customWidth="1"/>
-    <col min="5" max="5" width="20.875" customWidth="1"/>
-    <col min="6" max="6" width="9.125" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="9" width="16.625" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="15.75" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="14.875" customWidth="1"/>
-    <col min="14" max="14" width="12.25" customWidth="1"/>
-    <col min="15" max="15" width="15.875" customWidth="1"/>
-    <col min="16" max="16" width="13.75" customWidth="1"/>
-    <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="19" max="19" width="11.375" customWidth="1"/>
-    <col min="20" max="20" width="12.75" customWidth="1"/>
-    <col min="21" max="21" width="17" customWidth="1"/>
-    <col min="22" max="22" width="16.125" customWidth="1"/>
-    <col min="23" max="23" width="18.75" customWidth="1"/>
-    <col min="24" max="24" width="18.375" customWidth="1"/>
-    <col min="25" max="25" width="15.125" customWidth="1"/>
-    <col min="26" max="26" width="14.625" customWidth="1"/>
-    <col min="27" max="27" width="16.625" customWidth="1"/>
-    <col min="28" max="28" width="14.25" customWidth="1"/>
-    <col min="29" max="29" width="12.125" customWidth="1"/>
-    <col min="30" max="30" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="31.375" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="7" width="20.875" customWidth="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="11" width="16.625" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="15.75" customWidth="1"/>
+    <col min="14" max="14" width="13.5" customWidth="1"/>
+    <col min="15" max="15" width="14.875" customWidth="1"/>
+    <col min="16" max="16" width="12.25" customWidth="1"/>
+    <col min="17" max="17" width="15.875" customWidth="1"/>
+    <col min="18" max="18" width="13.75" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
+    <col min="21" max="21" width="11.375" customWidth="1"/>
+    <col min="22" max="22" width="12.75" customWidth="1"/>
+    <col min="23" max="23" width="17" customWidth="1"/>
+    <col min="24" max="24" width="16.125" customWidth="1"/>
+    <col min="25" max="25" width="18.75" customWidth="1"/>
+    <col min="26" max="26" width="18.375" customWidth="1"/>
+    <col min="27" max="27" width="15.125" customWidth="1"/>
+    <col min="28" max="28" width="14.625" customWidth="1"/>
+    <col min="29" max="29" width="16.625" customWidth="1"/>
+    <col min="30" max="30" width="14.25" customWidth="1"/>
     <col min="31" max="31" width="7.625" customWidth="1"/>
     <col min="32" max="32" width="14" customWidth="1"/>
     <col min="33" max="33" width="14.75" customWidth="1"/>
@@ -1809,88 +1843,88 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="AE1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>25</v>
@@ -1905,10 +1939,10 @@
         <v>29</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.15">
@@ -1916,88 +1950,88 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2">
         <v>10000</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>20000</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>100</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>700</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>30</v>
       </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
       <c r="M2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
         <v>0.25</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>2</v>
+      </c>
+      <c r="W2">
         <v>30</v>
       </c>
-      <c r="V2">
-        <v>2</v>
-      </c>
-      <c r="W2">
+      <c r="X2">
+        <v>2</v>
+      </c>
+      <c r="Y2">
         <v>25</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>1.5</v>
       </c>
-      <c r="Y2">
+      <c r="AA2">
         <v>35</v>
       </c>
-      <c r="Z2">
+      <c r="AB2">
         <v>2.8</v>
       </c>
-      <c r="AA2">
+      <c r="AC2">
         <v>0.7</v>
       </c>
-      <c r="AB2">
+      <c r="AD2">
         <v>2.5</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>33</v>
       </c>
       <c r="AE2">
         <v>1</v>
@@ -2015,7 +2049,7 @@
         <v>1</v>
       </c>
       <c r="AJ2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AK2">
         <v>0.25</v>
@@ -2026,64 +2060,64 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3">
         <v>1000</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>300</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>100</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>600</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>50</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>3</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>1.2</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>0.25</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -2098,16 +2132,16 @@
         <v>0</v>
       </c>
       <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
         <v>0.8</v>
       </c>
-      <c r="AB3">
+      <c r="AD3">
         <v>2.5</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>45</v>
       </c>
       <c r="AE3">
         <v>2</v>
@@ -2136,85 +2170,85 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
         <v>101</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="G4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4">
         <v>1000</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>20000</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>120</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>850</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>30</v>
       </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
       <c r="M4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>0.25</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
         <v>30</v>
       </c>
-      <c r="V4">
-        <v>2</v>
-      </c>
-      <c r="W4">
+      <c r="X4">
+        <v>2</v>
+      </c>
+      <c r="Y4">
         <v>25</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>1.5</v>
       </c>
-      <c r="Y4">
+      <c r="AA4">
         <v>35</v>
       </c>
-      <c r="Z4">
+      <c r="AB4">
         <v>2.8</v>
       </c>
-      <c r="AA4">
+      <c r="AC4">
         <v>0.5</v>
       </c>
-      <c r="AB4">
+      <c r="AD4">
         <v>2.5</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>33</v>
       </c>
       <c r="AE4">
         <v>1</v>
@@ -2232,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="AJ4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK4">
         <v>0.3</v>
@@ -2243,23 +2277,17 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>200</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5">
         <v>0</v>
       </c>
@@ -2270,37 +2298,37 @@
         <v>0</v>
       </c>
       <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
         <v>1.2</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -2318,6 +2346,12 @@
         <v>0</v>
       </c>
       <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5">
@@ -2344,91 +2378,91 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" t="s">
-        <v>109</v>
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6">
         <v>10000</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>20000</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>100</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>700</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>30</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>7</v>
       </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>0.25</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
         <v>30</v>
       </c>
-      <c r="V6">
-        <v>2</v>
-      </c>
-      <c r="W6">
+      <c r="X6">
+        <v>2</v>
+      </c>
+      <c r="Y6">
         <v>25</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>1.5</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <v>35</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <v>2.8</v>
       </c>
-      <c r="AA6">
+      <c r="AC6">
         <v>0.7</v>
       </c>
-      <c r="AB6">
+      <c r="AD6">
         <v>2.5</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>33</v>
       </c>
       <c r="AE6">
         <v>1</v>
@@ -2446,7 +2480,7 @@
         <v>1</v>
       </c>
       <c r="AJ6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AK6">
         <v>0.3</v>
@@ -2457,88 +2491,88 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7">
         <v>10000</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>20000</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>100</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>700</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>30</v>
       </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>2</v>
-      </c>
       <c r="M7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>0.25</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
         <v>30</v>
       </c>
-      <c r="V7">
-        <v>2</v>
-      </c>
-      <c r="W7">
+      <c r="X7">
+        <v>2</v>
+      </c>
+      <c r="Y7">
         <v>25</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>1.5</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <v>35</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <v>2.8</v>
       </c>
-      <c r="AA7">
+      <c r="AC7">
         <v>0.5</v>
       </c>
-      <c r="AB7">
+      <c r="AD7">
         <v>2.5</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>33</v>
       </c>
       <c r="AE7">
         <v>1</v>
@@ -2556,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="AJ7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="AK7">
         <v>0.35</v>
@@ -2567,88 +2601,88 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8">
         <v>1000</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>20000</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>100</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>700</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>50</v>
       </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
       <c r="M8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>0.25</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
         <v>30</v>
       </c>
-      <c r="V8">
-        <v>2</v>
-      </c>
-      <c r="W8">
+      <c r="X8">
+        <v>2</v>
+      </c>
+      <c r="Y8">
         <v>25</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>1.5</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
         <v>35</v>
       </c>
-      <c r="Z8">
+      <c r="AB8">
         <v>2.8</v>
       </c>
-      <c r="AA8">
+      <c r="AC8">
         <v>0.5</v>
       </c>
-      <c r="AB8">
+      <c r="AD8">
         <v>2.5</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>33</v>
       </c>
       <c r="AE8">
         <v>1</v>
@@ -2666,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="AJ8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="AK8">
         <v>0.4</v>
@@ -2677,88 +2711,88 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9">
         <v>10000</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>20000</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>100</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>700</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>50</v>
       </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
       <c r="M9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>0.25</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
         <v>30</v>
       </c>
-      <c r="V9">
-        <v>2</v>
-      </c>
-      <c r="W9">
+      <c r="X9">
+        <v>2</v>
+      </c>
+      <c r="Y9">
         <v>25</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>1.5</v>
       </c>
-      <c r="Y9">
+      <c r="AA9">
         <v>35</v>
       </c>
-      <c r="Z9">
+      <c r="AB9">
         <v>2.8</v>
       </c>
-      <c r="AA9">
+      <c r="AC9">
         <v>0.5</v>
       </c>
-      <c r="AB9">
+      <c r="AD9">
         <v>2.5</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>33</v>
       </c>
       <c r="AE9">
         <v>1</v>
@@ -2776,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="AJ9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK9">
         <v>0.35</v>
@@ -2787,88 +2821,88 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10">
         <v>10000</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>20000</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>100</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>700</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>50</v>
       </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>2</v>
-      </c>
       <c r="M10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>0.25</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10">
         <v>30</v>
       </c>
-      <c r="V10">
-        <v>2</v>
-      </c>
-      <c r="W10">
+      <c r="X10">
+        <v>2</v>
+      </c>
+      <c r="Y10">
         <v>25</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>1.5</v>
       </c>
-      <c r="Y10">
+      <c r="AA10">
         <v>35</v>
       </c>
-      <c r="Z10">
+      <c r="AB10">
         <v>2.8</v>
       </c>
-      <c r="AA10">
+      <c r="AC10">
         <v>0.5</v>
       </c>
-      <c r="AB10">
+      <c r="AD10">
         <v>2.5</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>33</v>
       </c>
       <c r="AE10">
         <v>1</v>
@@ -2886,7 +2920,7 @@
         <v>1</v>
       </c>
       <c r="AJ10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AK10">
         <v>0.25</v>
@@ -2897,88 +2931,88 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11">
         <v>10000</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>20000</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>100</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>700</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>50</v>
       </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>2</v>
-      </c>
       <c r="M11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>0.25</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="W11">
         <v>30</v>
       </c>
-      <c r="V11">
-        <v>2</v>
-      </c>
-      <c r="W11">
+      <c r="X11">
+        <v>2</v>
+      </c>
+      <c r="Y11">
         <v>25</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>1.5</v>
       </c>
-      <c r="Y11">
+      <c r="AA11">
         <v>35</v>
       </c>
-      <c r="Z11">
+      <c r="AB11">
         <v>2.8</v>
       </c>
-      <c r="AA11">
+      <c r="AC11">
         <v>0.7</v>
       </c>
-      <c r="AB11">
+      <c r="AD11">
         <v>2.5</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>33</v>
       </c>
       <c r="AE11">
         <v>1</v>
@@ -2996,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="AJ11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="AK11">
         <v>0.3</v>
@@ -3007,88 +3041,88 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12">
         <v>10000</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>20000</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>80</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>700</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>50</v>
       </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>2</v>
-      </c>
       <c r="M12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>0.25</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
         <v>30</v>
       </c>
-      <c r="V12">
-        <v>2</v>
-      </c>
-      <c r="W12">
+      <c r="X12">
+        <v>2</v>
+      </c>
+      <c r="Y12">
         <v>25</v>
       </c>
-      <c r="X12">
+      <c r="Z12">
         <v>1.5</v>
       </c>
-      <c r="Y12">
+      <c r="AA12">
         <v>35</v>
       </c>
-      <c r="Z12">
+      <c r="AB12">
         <v>2.8</v>
       </c>
-      <c r="AA12">
+      <c r="AC12">
         <v>0.5</v>
       </c>
-      <c r="AB12">
+      <c r="AD12">
         <v>2.5</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>33</v>
       </c>
       <c r="AE12">
         <v>1</v>
@@ -3106,7 +3140,7 @@
         <v>1</v>
       </c>
       <c r="AJ12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="AK12">
         <v>0.3</v>
@@ -3117,91 +3151,91 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
+        <v>66</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
       </c>
       <c r="E13">
         <v>4</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13">
         <v>10000</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>20000</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>100</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>700</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>30</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>7</v>
       </c>
-      <c r="L13">
-        <v>2</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
       <c r="N13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>0.25</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
         <v>3</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>30</v>
       </c>
-      <c r="V13">
-        <v>2</v>
-      </c>
-      <c r="W13">
+      <c r="X13">
+        <v>2</v>
+      </c>
+      <c r="Y13">
         <v>25</v>
       </c>
-      <c r="X13">
+      <c r="Z13">
         <v>1.5</v>
       </c>
-      <c r="Y13">
+      <c r="AA13">
         <v>35</v>
       </c>
-      <c r="Z13">
+      <c r="AB13">
         <v>2.8</v>
       </c>
-      <c r="AA13">
+      <c r="AC13">
         <v>0.7</v>
       </c>
-      <c r="AB13">
+      <c r="AD13">
         <v>2.5</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>33</v>
       </c>
       <c r="AE13">
         <v>1</v>
@@ -3219,7 +3253,7 @@
         <v>1</v>
       </c>
       <c r="AJ13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AK13">
         <v>0.3</v>
@@ -3230,91 +3264,91 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E14">
         <v>4</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14">
         <v>10000</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>20000</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>100</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>700</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>30</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>7</v>
       </c>
-      <c r="L14">
-        <v>2</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
       <c r="N14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>0.25</v>
       </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
         <v>3</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>30</v>
       </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
-      <c r="W14">
+      <c r="X14">
+        <v>2</v>
+      </c>
+      <c r="Y14">
         <v>25</v>
       </c>
-      <c r="X14">
+      <c r="Z14">
         <v>1.5</v>
       </c>
-      <c r="Y14">
+      <c r="AA14">
         <v>35</v>
       </c>
-      <c r="Z14">
+      <c r="AB14">
         <v>2.8</v>
       </c>
-      <c r="AA14">
+      <c r="AC14">
         <v>0.8</v>
       </c>
-      <c r="AB14">
+      <c r="AD14">
         <v>2.5</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>33</v>
       </c>
       <c r="AE14">
         <v>1</v>
@@ -3332,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AK14">
         <v>0.25</v>
@@ -3343,91 +3377,91 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15">
         <v>4</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15">
         <v>10000</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>20000</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>100</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>700</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>30</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>7</v>
       </c>
-      <c r="L15">
-        <v>2</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
       <c r="N15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>0.25</v>
       </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>2</v>
+      </c>
+      <c r="W15">
         <v>30</v>
       </c>
-      <c r="V15">
-        <v>2</v>
-      </c>
-      <c r="W15">
+      <c r="X15">
+        <v>2</v>
+      </c>
+      <c r="Y15">
         <v>25</v>
       </c>
-      <c r="X15">
+      <c r="Z15">
         <v>1.5</v>
       </c>
-      <c r="Y15">
+      <c r="AA15">
         <v>35</v>
       </c>
-      <c r="Z15">
+      <c r="AB15">
         <v>2.8</v>
       </c>
-      <c r="AA15">
+      <c r="AC15">
         <v>0.6</v>
       </c>
-      <c r="AB15">
+      <c r="AD15">
         <v>2.5</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>33</v>
       </c>
       <c r="AE15">
         <v>1</v>
@@ -3445,7 +3479,7 @@
         <v>1</v>
       </c>
       <c r="AJ15" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK15">
         <v>0.3</v>
@@ -3456,88 +3490,88 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16">
         <v>10000</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>20000</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>100</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>700</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>30</v>
       </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>2</v>
-      </c>
       <c r="M16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>0.25</v>
       </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>2</v>
+      </c>
+      <c r="W16">
         <v>30</v>
       </c>
-      <c r="V16">
-        <v>2</v>
-      </c>
-      <c r="W16">
+      <c r="X16">
+        <v>2</v>
+      </c>
+      <c r="Y16">
         <v>25</v>
       </c>
-      <c r="X16">
+      <c r="Z16">
         <v>1.5</v>
       </c>
-      <c r="Y16">
+      <c r="AA16">
         <v>35</v>
       </c>
-      <c r="Z16">
+      <c r="AB16">
         <v>2.8</v>
       </c>
-      <c r="AA16">
+      <c r="AC16">
         <v>0.5</v>
       </c>
-      <c r="AB16">
+      <c r="AD16">
         <v>2.5</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>33</v>
       </c>
       <c r="AE16">
         <v>1</v>
@@ -3555,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="AJ16" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AK16">
         <v>0.25</v>
@@ -3566,91 +3600,91 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E17">
         <v>10</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17">
         <v>10000</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>20000</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>100</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>700</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>30</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>7</v>
       </c>
-      <c r="L17">
-        <v>2</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
       <c r="N17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>0.25</v>
       </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>2</v>
+      </c>
+      <c r="W17">
         <v>30</v>
       </c>
-      <c r="V17">
-        <v>2</v>
-      </c>
-      <c r="W17">
+      <c r="X17">
+        <v>2</v>
+      </c>
+      <c r="Y17">
         <v>25</v>
       </c>
-      <c r="X17">
+      <c r="Z17">
         <v>1.5</v>
       </c>
-      <c r="Y17">
+      <c r="AA17">
         <v>35</v>
       </c>
-      <c r="Z17">
+      <c r="AB17">
         <v>2.8</v>
       </c>
-      <c r="AA17">
+      <c r="AC17">
         <v>0.5</v>
       </c>
-      <c r="AB17">
+      <c r="AD17">
         <v>2.5</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>33</v>
       </c>
       <c r="AE17">
         <v>1</v>
@@ -3668,7 +3702,7 @@
         <v>1</v>
       </c>
       <c r="AJ17" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AK17">
         <v>0.25</v>
@@ -3679,88 +3713,88 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18">
         <v>10000</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>20000</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>100</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>700</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>50</v>
       </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>2</v>
-      </c>
       <c r="M18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>0.25</v>
       </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
         <v>30</v>
       </c>
-      <c r="V18">
-        <v>2</v>
-      </c>
-      <c r="W18">
+      <c r="X18">
+        <v>2</v>
+      </c>
+      <c r="Y18">
         <v>25</v>
       </c>
-      <c r="X18">
+      <c r="Z18">
         <v>1.5</v>
       </c>
-      <c r="Y18">
+      <c r="AA18">
         <v>35</v>
       </c>
-      <c r="Z18">
+      <c r="AB18">
         <v>2.8</v>
       </c>
-      <c r="AA18">
+      <c r="AC18">
         <v>0.5</v>
       </c>
-      <c r="AB18">
+      <c r="AD18">
         <v>2.5</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>33</v>
       </c>
       <c r="AE18">
         <v>1</v>
@@ -3778,7 +3812,7 @@
         <v>1</v>
       </c>
       <c r="AJ18" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AK18">
         <v>0.35</v>
@@ -3789,91 +3823,91 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E19">
         <v>4</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19">
         <v>10000</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>20000</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>100</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>700</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>30</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>3.5</v>
       </c>
-      <c r="L19">
-        <v>2</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
       <c r="N19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
         <v>0.25</v>
       </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>2</v>
+      </c>
+      <c r="W19">
         <v>30</v>
       </c>
-      <c r="V19">
-        <v>2</v>
-      </c>
-      <c r="W19">
+      <c r="X19">
+        <v>2</v>
+      </c>
+      <c r="Y19">
         <v>25</v>
       </c>
-      <c r="X19">
+      <c r="Z19">
         <v>1.5</v>
       </c>
-      <c r="Y19">
+      <c r="AA19">
         <v>35</v>
       </c>
-      <c r="Z19">
+      <c r="AB19">
         <v>2.8</v>
       </c>
-      <c r="AA19">
+      <c r="AC19">
         <v>0.7</v>
       </c>
-      <c r="AB19">
+      <c r="AD19">
         <v>2.5</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>33</v>
       </c>
       <c r="AE19">
         <v>1</v>
@@ -3891,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="AJ19" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="AK19">
         <v>0.3</v>
@@ -3902,91 +3936,91 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E20">
         <v>4</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20">
         <v>10000</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>20000</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>100</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>700</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>30</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>6</v>
       </c>
-      <c r="L20">
-        <v>2</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
       <c r="N20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <v>0.25</v>
       </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>2</v>
+      </c>
+      <c r="W20">
         <v>30</v>
       </c>
-      <c r="V20">
-        <v>2</v>
-      </c>
-      <c r="W20">
+      <c r="X20">
+        <v>2</v>
+      </c>
+      <c r="Y20">
         <v>25</v>
       </c>
-      <c r="X20">
+      <c r="Z20">
         <v>1.5</v>
       </c>
-      <c r="Y20">
+      <c r="AA20">
         <v>35</v>
       </c>
-      <c r="Z20">
+      <c r="AB20">
         <v>2.8</v>
       </c>
-      <c r="AA20">
+      <c r="AC20">
         <v>0.5</v>
       </c>
-      <c r="AB20">
+      <c r="AD20">
         <v>2.5</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>33</v>
       </c>
       <c r="AE20">
         <v>1</v>
@@ -4004,7 +4038,7 @@
         <v>1</v>
       </c>
       <c r="AJ20" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="AK20">
         <v>0.3</v>
@@ -4015,91 +4049,91 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E21">
         <v>4</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21">
         <v>10000</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>20000</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>100</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>700</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>30</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>7</v>
       </c>
-      <c r="L21">
-        <v>2</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
       <c r="N21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
         <v>0.25</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
         <v>3</v>
       </c>
-      <c r="U21">
+      <c r="W21">
         <v>30</v>
       </c>
-      <c r="V21">
-        <v>2</v>
-      </c>
-      <c r="W21">
+      <c r="X21">
+        <v>2</v>
+      </c>
+      <c r="Y21">
         <v>25</v>
       </c>
-      <c r="X21">
+      <c r="Z21">
         <v>1.5</v>
       </c>
-      <c r="Y21">
+      <c r="AA21">
         <v>35</v>
       </c>
-      <c r="Z21">
+      <c r="AB21">
         <v>2.8</v>
       </c>
-      <c r="AA21">
+      <c r="AC21">
         <v>0.5</v>
       </c>
-      <c r="AB21">
+      <c r="AD21">
         <v>2.5</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>33</v>
       </c>
       <c r="AE21">
         <v>1</v>
@@ -4117,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="AJ21" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AK21">
         <v>0.3</v>
@@ -4128,91 +4162,91 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E22">
         <v>4</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22">
         <v>10000</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>20000</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>100</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>700</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>30</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>7</v>
       </c>
-      <c r="L22">
-        <v>2</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
       <c r="N22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
         <v>0.25</v>
       </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
         <v>3</v>
       </c>
-      <c r="U22">
+      <c r="W22">
         <v>30</v>
       </c>
-      <c r="V22">
-        <v>2</v>
-      </c>
-      <c r="W22">
+      <c r="X22">
+        <v>2</v>
+      </c>
+      <c r="Y22">
         <v>25</v>
       </c>
-      <c r="X22">
+      <c r="Z22">
         <v>1.5</v>
       </c>
-      <c r="Y22">
+      <c r="AA22">
         <v>35</v>
       </c>
-      <c r="Z22">
+      <c r="AB22">
         <v>2.8</v>
       </c>
-      <c r="AA22">
+      <c r="AC22">
         <v>0.7</v>
       </c>
-      <c r="AB22">
+      <c r="AD22">
         <v>2.5</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>33</v>
       </c>
       <c r="AE22">
         <v>1</v>
@@ -4230,7 +4264,7 @@
         <v>1</v>
       </c>
       <c r="AJ22" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AK22">
         <v>0.3</v>
@@ -4241,91 +4275,91 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E23">
         <v>4</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" t="s">
+        <v>110</v>
+      </c>
+      <c r="H23">
         <v>10000</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>20000</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>100</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>700</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>30</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>5</v>
       </c>
-      <c r="L23">
-        <v>2</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
       <c r="N23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
         <v>0.25</v>
       </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
         <v>3</v>
       </c>
-      <c r="U23">
+      <c r="W23">
         <v>30</v>
       </c>
-      <c r="V23">
-        <v>2</v>
-      </c>
-      <c r="W23">
+      <c r="X23">
+        <v>2</v>
+      </c>
+      <c r="Y23">
         <v>25</v>
       </c>
-      <c r="X23">
+      <c r="Z23">
         <v>1.5</v>
       </c>
-      <c r="Y23">
+      <c r="AA23">
         <v>35</v>
       </c>
-      <c r="Z23">
+      <c r="AB23">
         <v>2.8</v>
       </c>
-      <c r="AA23">
+      <c r="AC23">
         <v>0.7</v>
       </c>
-      <c r="AB23">
+      <c r="AD23">
         <v>2.5</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>33</v>
       </c>
       <c r="AE23">
         <v>1</v>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -963,7 +963,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="121">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1374,10 +1374,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,1.8,1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0,1,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1419,6 +1415,14 @@
   </si>
   <si>
     <t>0,0,0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4,1.4,0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1795,7 +1799,7 @@
   <dimension ref="A1:AK23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1962,7 +1966,7 @@
         <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H2">
         <v>10000</v>
@@ -2072,7 +2076,7 @@
         <v>102</v>
       </c>
       <c r="G3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H3">
         <v>1000</v>
@@ -2179,7 +2183,7 @@
         <v>101</v>
       </c>
       <c r="G4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H4">
         <v>1000</v>
@@ -2390,10 +2394,10 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" t="s">
         <v>116</v>
-      </c>
-      <c r="G6" t="s">
-        <v>117</v>
       </c>
       <c r="H6">
         <v>10000</v>
@@ -2503,7 +2507,7 @@
         <v>101</v>
       </c>
       <c r="G7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H7">
         <v>10000</v>
@@ -2613,7 +2617,7 @@
         <v>103</v>
       </c>
       <c r="G8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H8">
         <v>1000</v>
@@ -2723,7 +2727,7 @@
         <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H9">
         <v>10000</v>
@@ -2833,7 +2837,7 @@
         <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H10">
         <v>10000</v>
@@ -2943,7 +2947,7 @@
         <v>105</v>
       </c>
       <c r="G11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H11">
         <v>10000</v>
@@ -3053,7 +3057,7 @@
         <v>101</v>
       </c>
       <c r="G12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H12">
         <v>10000</v>
@@ -3163,10 +3167,10 @@
         <v>4</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
         <v>118</v>
-      </c>
-      <c r="G13" t="s">
-        <v>119</v>
       </c>
       <c r="H13">
         <v>10000</v>
@@ -3269,8 +3273,8 @@
       <c r="C14" t="s">
         <v>68</v>
       </c>
-      <c r="D14" t="s">
-        <v>35</v>
+      <c r="D14">
+        <v>7</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -3279,7 +3283,7 @@
         <v>106</v>
       </c>
       <c r="G14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H14">
         <v>10000</v>
@@ -3382,8 +3386,8 @@
       <c r="C15" t="s">
         <v>72</v>
       </c>
-      <c r="D15" t="s">
-        <v>35</v>
+      <c r="D15">
+        <v>9</v>
       </c>
       <c r="E15">
         <v>4</v>
@@ -3392,7 +3396,7 @@
         <v>107</v>
       </c>
       <c r="G15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H15">
         <v>10000</v>
@@ -3502,7 +3506,7 @@
         <v>101</v>
       </c>
       <c r="G16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H16">
         <v>10000</v>
@@ -3605,17 +3609,17 @@
       <c r="C17" t="s">
         <v>78</v>
       </c>
-      <c r="D17" t="s">
-        <v>35</v>
+      <c r="D17">
+        <v>12</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G17" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="H17">
         <v>10000</v>
@@ -3725,7 +3729,7 @@
         <v>104</v>
       </c>
       <c r="G18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H18">
         <v>10000</v>
@@ -3835,10 +3839,10 @@
         <v>4</v>
       </c>
       <c r="F19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" t="s">
         <v>109</v>
-      </c>
-      <c r="G19" t="s">
-        <v>110</v>
       </c>
       <c r="H19">
         <v>10000</v>
@@ -3951,7 +3955,7 @@
         <v>102</v>
       </c>
       <c r="G20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H20">
         <v>10000</v>
@@ -4064,7 +4068,7 @@
         <v>102</v>
       </c>
       <c r="G21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H21">
         <v>10000</v>
@@ -4177,7 +4181,7 @@
         <v>102</v>
       </c>
       <c r="G22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H22">
         <v>10000</v>
@@ -4290,7 +4294,7 @@
         <v>102</v>
       </c>
       <c r="G23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H23">
         <v>10000</v>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -963,7 +963,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="123">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1398,10 +1398,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,0,0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.3,0.9,1.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1423,6 +1419,18 @@
   </si>
   <si>
     <t>0,0,0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0.4,1.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2,1.1,0.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1799,7 +1807,7 @@
   <dimension ref="A1:AK23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2394,10 +2402,10 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" t="s">
         <v>115</v>
-      </c>
-      <c r="G6" t="s">
-        <v>116</v>
       </c>
       <c r="H6">
         <v>10000</v>
@@ -3167,10 +3175,10 @@
         <v>4</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
         <v>117</v>
-      </c>
-      <c r="G13" t="s">
-        <v>118</v>
       </c>
       <c r="H13">
         <v>10000</v>
@@ -3616,10 +3624,10 @@
         <v>18</v>
       </c>
       <c r="F17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" t="s">
         <v>119</v>
-      </c>
-      <c r="G17" t="s">
-        <v>120</v>
       </c>
       <c r="H17">
         <v>10000</v>
@@ -3832,8 +3840,8 @@
       <c r="C19" t="s">
         <v>84</v>
       </c>
-      <c r="D19" t="s">
-        <v>35</v>
+      <c r="D19">
+        <v>14</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -3945,17 +3953,17 @@
       <c r="C20" t="s">
         <v>87</v>
       </c>
-      <c r="D20" t="s">
-        <v>35</v>
+      <c r="D20">
+        <v>15</v>
       </c>
       <c r="E20">
         <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="G20" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="H20">
         <v>10000</v>
@@ -4058,14 +4066,14 @@
       <c r="C21" t="s">
         <v>90</v>
       </c>
-      <c r="D21" t="s">
-        <v>35</v>
+      <c r="D21">
+        <v>18</v>
       </c>
       <c r="E21">
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="G21" t="s">
         <v>109</v>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1807,7 +1807,7 @@
   <dimension ref="A1:AK23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2200,7 +2200,7 @@
         <v>20000</v>
       </c>
       <c r="J4">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K4">
         <v>850</v>
@@ -2524,7 +2524,7 @@
         <v>20000</v>
       </c>
       <c r="J7">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="K7">
         <v>700</v>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -963,7 +963,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="123">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1807,7 +1807,7 @@
   <dimension ref="A1:AK23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2200,7 +2200,7 @@
         <v>20000</v>
       </c>
       <c r="J4">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K4">
         <v>850</v>
@@ -2524,7 +2524,7 @@
         <v>20000</v>
       </c>
       <c r="J7">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="K7">
         <v>700</v>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -963,7 +963,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="123">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1806,8 +1806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AD34" sqref="AD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2801,7 +2801,7 @@
         <v>2.8</v>
       </c>
       <c r="AC9">
-        <v>0.5</v>
+        <v>0.68</v>
       </c>
       <c r="AD9">
         <v>2.5</v>
@@ -3131,7 +3131,7 @@
         <v>2.8</v>
       </c>
       <c r="AC12">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD12">
         <v>2.5</v>
@@ -3580,7 +3580,7 @@
         <v>2.8</v>
       </c>
       <c r="AC16">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AD16">
         <v>2.5</v>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1806,8 +1806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AD34" sqref="AD34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2200,7 +2200,7 @@
         <v>20000</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K4">
         <v>850</v>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -963,7 +963,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="124">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1354,18 +1354,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,1,0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1,0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1,0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0,1,1.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1431,6 +1419,22 @@
   </si>
   <si>
     <t>0.2,1.1,0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1807,7 +1811,7 @@
   <dimension ref="A1:AK23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1974,7 +1978,7 @@
         <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H2">
         <v>10000</v>
@@ -2084,7 +2088,7 @@
         <v>102</v>
       </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H3">
         <v>1000</v>
@@ -2188,10 +2192,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="G4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H4">
         <v>1000</v>
@@ -2402,10 +2406,10 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H6">
         <v>10000</v>
@@ -2512,10 +2516,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H7">
         <v>10000</v>
@@ -2622,10 +2626,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="G8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H8">
         <v>1000</v>
@@ -2732,10 +2736,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H9">
         <v>10000</v>
@@ -2842,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H10">
         <v>10000</v>
@@ -2952,10 +2956,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H11">
         <v>10000</v>
@@ -3062,10 +3066,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H12">
         <v>10000</v>
@@ -3175,10 +3179,10 @@
         <v>4</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H13">
         <v>10000</v>
@@ -3288,10 +3292,10 @@
         <v>4</v>
       </c>
       <c r="F14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" t="s">
         <v>106</v>
-      </c>
-      <c r="G14" t="s">
-        <v>109</v>
       </c>
       <c r="H14">
         <v>10000</v>
@@ -3401,10 +3405,10 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H15">
         <v>10000</v>
@@ -3511,10 +3515,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H16">
         <v>10000</v>
@@ -3624,10 +3628,10 @@
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H17">
         <v>10000</v>
@@ -3734,10 +3738,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H18">
         <v>10000</v>
@@ -3847,10 +3851,10 @@
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H19">
         <v>10000</v>
@@ -3960,10 +3964,10 @@
         <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H20">
         <v>10000</v>
@@ -4073,10 +4077,10 @@
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H21">
         <v>10000</v>
@@ -4189,7 +4193,7 @@
         <v>102</v>
       </c>
       <c r="G22" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H22">
         <v>10000</v>
@@ -4302,7 +4306,7 @@
         <v>102</v>
       </c>
       <c r="G23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H23">
         <v>10000</v>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -958,12 +958,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="AL1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//死亡到删除的时间</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="125">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1436,6 +1462,9 @@
   <si>
     <t>0,0,0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Death2RemoveTime</t>
   </si>
 </sst>
 </file>
@@ -1808,10 +1837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AL23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AL30" sqref="AL30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1848,7 +1877,7 @@
     <col min="34" max="34" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1960,8 +1989,11 @@
       <c r="AK1" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2070,8 +2102,11 @@
       <c r="AK2">
         <v>0.25</v>
       </c>
+      <c r="AL2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2177,8 +2212,11 @@
       <c r="AK3">
         <v>0.25</v>
       </c>
+      <c r="AL3">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2287,8 +2325,11 @@
       <c r="AK4">
         <v>0.3</v>
       </c>
+      <c r="AL4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2388,8 +2429,11 @@
       <c r="AK5">
         <v>0.1</v>
       </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2501,8 +2545,11 @@
       <c r="AK6">
         <v>0.3</v>
       </c>
+      <c r="AL6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2611,8 +2658,11 @@
       <c r="AK7">
         <v>0.35</v>
       </c>
+      <c r="AL7">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2721,8 +2771,11 @@
       <c r="AK8">
         <v>0.4</v>
       </c>
+      <c r="AL8">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2831,8 +2884,11 @@
       <c r="AK9">
         <v>0.35</v>
       </c>
+      <c r="AL9">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2941,8 +2997,11 @@
       <c r="AK10">
         <v>0.25</v>
       </c>
+      <c r="AL10">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3051,8 +3110,11 @@
       <c r="AK11">
         <v>0.3</v>
       </c>
+      <c r="AL11">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3161,8 +3223,11 @@
       <c r="AK12">
         <v>0.3</v>
       </c>
+      <c r="AL12">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3274,8 +3339,11 @@
       <c r="AK13">
         <v>0.3</v>
       </c>
+      <c r="AL13">
+        <v>4</v>
+      </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3387,8 +3455,11 @@
       <c r="AK14">
         <v>0.25</v>
       </c>
+      <c r="AL14">
+        <v>4</v>
+      </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3500,8 +3571,11 @@
       <c r="AK15">
         <v>0.3</v>
       </c>
+      <c r="AL15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3610,8 +3684,11 @@
       <c r="AK16">
         <v>0.25</v>
       </c>
+      <c r="AL16">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3723,8 +3800,11 @@
       <c r="AK17">
         <v>0.25</v>
       </c>
+      <c r="AL17">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3833,8 +3913,11 @@
       <c r="AK18">
         <v>0.35</v>
       </c>
+      <c r="AL18">
+        <v>4</v>
+      </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3946,8 +4029,11 @@
       <c r="AK19">
         <v>0.3</v>
       </c>
+      <c r="AL19">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4059,8 +4145,11 @@
       <c r="AK20">
         <v>0.3</v>
       </c>
+      <c r="AL20">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4172,8 +4261,11 @@
       <c r="AK21">
         <v>0.3</v>
       </c>
+      <c r="AL21">
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4285,8 +4377,11 @@
       <c r="AK22">
         <v>0.3</v>
       </c>
+      <c r="AL22">
+        <v>4</v>
+      </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4394,6 +4489,9 @@
       </c>
       <c r="AK23">
         <v>0.3</v>
+      </c>
+      <c r="AL23">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -989,7 +989,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="127">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1140,10 +1140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hero/Mage_Lit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hero/Worker_Lit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1465,6 +1461,18 @@
   </si>
   <si>
     <t>Death2RemoveTime</t>
+  </si>
+  <si>
+    <t>Enemy/Mage_Lit_green</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战小兵1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Footman_Lit_green</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1837,10 +1845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL23"/>
+  <dimension ref="A1:AL24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AL30" sqref="AL30"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AF28" sqref="AF28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1990,7 +1998,7 @@
         <v>37</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.15">
@@ -2001,16 +2009,16 @@
         <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H2">
         <v>10000</v>
@@ -2111,19 +2119,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>124</v>
+      </c>
+      <c r="D3">
+        <v>34</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H3">
         <v>1000</v>
@@ -2198,7 +2209,7 @@
         <v>2</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG3">
         <v>5</v>
@@ -2210,7 +2221,7 @@
         <v>2</v>
       </c>
       <c r="AK3">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AL3">
         <v>4</v>
@@ -2224,16 +2235,16 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H4">
         <v>1000</v>
@@ -2337,7 +2348,7 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2438,10 +2449,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2450,10 +2461,10 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" t="s">
         <v>111</v>
-      </c>
-      <c r="G6" t="s">
-        <v>112</v>
       </c>
       <c r="H6">
         <v>10000</v>
@@ -2540,7 +2551,7 @@
         <v>1</v>
       </c>
       <c r="AJ6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK6">
         <v>0.3</v>
@@ -2554,19 +2565,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
         <v>47</v>
       </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H7">
         <v>10000</v>
@@ -2653,7 +2664,7 @@
         <v>1</v>
       </c>
       <c r="AJ7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AK7">
         <v>0.35</v>
@@ -2667,19 +2678,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
         <v>50</v>
       </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H8">
         <v>1000</v>
@@ -2766,7 +2777,7 @@
         <v>1</v>
       </c>
       <c r="AJ8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AK8">
         <v>0.4</v>
@@ -2780,19 +2791,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
         <v>53</v>
       </c>
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H9">
         <v>10000</v>
@@ -2879,7 +2890,7 @@
         <v>1</v>
       </c>
       <c r="AJ9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AK9">
         <v>0.35</v>
@@ -2893,19 +2904,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
         <v>56</v>
       </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H10">
         <v>10000</v>
@@ -2992,7 +3003,7 @@
         <v>1</v>
       </c>
       <c r="AJ10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AK10">
         <v>0.25</v>
@@ -3006,19 +3017,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
         <v>59</v>
       </c>
-      <c r="C11" t="s">
-        <v>60</v>
-      </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H11">
         <v>10000</v>
@@ -3105,7 +3116,7 @@
         <v>1</v>
       </c>
       <c r="AJ11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK11">
         <v>0.3</v>
@@ -3119,19 +3130,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
         <v>62</v>
       </c>
-      <c r="C12" t="s">
-        <v>63</v>
-      </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H12">
         <v>10000</v>
@@ -3218,7 +3229,7 @@
         <v>1</v>
       </c>
       <c r="AJ12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK12">
         <v>0.3</v>
@@ -3232,10 +3243,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
         <v>65</v>
-      </c>
-      <c r="C13" t="s">
-        <v>66</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -3244,10 +3255,10 @@
         <v>4</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" t="s">
         <v>113</v>
-      </c>
-      <c r="G13" t="s">
-        <v>114</v>
       </c>
       <c r="H13">
         <v>10000</v>
@@ -3334,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="AJ13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AK13">
         <v>0.3</v>
@@ -3348,10 +3359,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14">
         <v>7</v>
@@ -3360,10 +3371,10 @@
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H14">
         <v>10000</v>
@@ -3450,7 +3461,7 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK14">
         <v>0.25</v>
@@ -3464,10 +3475,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
         <v>71</v>
-      </c>
-      <c r="C15" t="s">
-        <v>72</v>
       </c>
       <c r="D15">
         <v>9</v>
@@ -3476,10 +3487,10 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H15">
         <v>10000</v>
@@ -3566,7 +3577,7 @@
         <v>1</v>
       </c>
       <c r="AJ15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK15">
         <v>0.3</v>
@@ -3580,19 +3591,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
         <v>74</v>
       </c>
-      <c r="C16" t="s">
-        <v>75</v>
-      </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H16">
         <v>10000</v>
@@ -3679,7 +3690,7 @@
         <v>1</v>
       </c>
       <c r="AJ16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AK16">
         <v>0.25</v>
@@ -3693,10 +3704,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
         <v>77</v>
-      </c>
-      <c r="C17" t="s">
-        <v>78</v>
       </c>
       <c r="D17">
         <v>12</v>
@@ -3705,10 +3716,10 @@
         <v>18</v>
       </c>
       <c r="F17" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" t="s">
         <v>115</v>
-      </c>
-      <c r="G17" t="s">
-        <v>116</v>
       </c>
       <c r="H17">
         <v>10000</v>
@@ -3795,7 +3806,7 @@
         <v>1</v>
       </c>
       <c r="AJ17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK17">
         <v>0.25</v>
@@ -3809,19 +3820,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
         <v>80</v>
       </c>
-      <c r="C18" t="s">
-        <v>81</v>
-      </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H18">
         <v>10000</v>
@@ -3908,7 +3919,7 @@
         <v>1</v>
       </c>
       <c r="AJ18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK18">
         <v>0.35</v>
@@ -3922,10 +3933,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
         <v>83</v>
-      </c>
-      <c r="C19" t="s">
-        <v>84</v>
       </c>
       <c r="D19">
         <v>14</v>
@@ -3934,10 +3945,10 @@
         <v>4</v>
       </c>
       <c r="F19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" t="s">
         <v>105</v>
-      </c>
-      <c r="G19" t="s">
-        <v>106</v>
       </c>
       <c r="H19">
         <v>10000</v>
@@ -4024,7 +4035,7 @@
         <v>1</v>
       </c>
       <c r="AJ19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AK19">
         <v>0.3</v>
@@ -4038,10 +4049,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" t="s">
         <v>86</v>
-      </c>
-      <c r="C20" t="s">
-        <v>87</v>
       </c>
       <c r="D20">
         <v>15</v>
@@ -4050,10 +4061,10 @@
         <v>4</v>
       </c>
       <c r="F20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" t="s">
         <v>117</v>
-      </c>
-      <c r="G20" t="s">
-        <v>118</v>
       </c>
       <c r="H20">
         <v>10000</v>
@@ -4140,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="AJ20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AK20">
         <v>0.3</v>
@@ -4154,10 +4165,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" t="s">
         <v>89</v>
-      </c>
-      <c r="C21" t="s">
-        <v>90</v>
       </c>
       <c r="D21">
         <v>18</v>
@@ -4166,10 +4177,10 @@
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H21">
         <v>10000</v>
@@ -4256,7 +4267,7 @@
         <v>1</v>
       </c>
       <c r="AJ21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK21">
         <v>0.3</v>
@@ -4270,10 +4281,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" t="s">
         <v>94</v>
-      </c>
-      <c r="C22" t="s">
-        <v>95</v>
       </c>
       <c r="D22" t="s">
         <v>35</v>
@@ -4282,10 +4293,10 @@
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H22">
         <v>10000</v>
@@ -4372,7 +4383,7 @@
         <v>1</v>
       </c>
       <c r="AJ22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK22">
         <v>0.3</v>
@@ -4386,10 +4397,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" t="s">
         <v>97</v>
-      </c>
-      <c r="C23" t="s">
-        <v>98</v>
       </c>
       <c r="D23" t="s">
         <v>35</v>
@@ -4398,10 +4409,10 @@
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H23">
         <v>10000</v>
@@ -4491,6 +4502,116 @@
         <v>0.3</v>
       </c>
       <c r="AL23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24">
+        <v>1000</v>
+      </c>
+      <c r="I24">
+        <v>300</v>
+      </c>
+      <c r="J24">
+        <v>100</v>
+      </c>
+      <c r="K24">
+        <v>600</v>
+      </c>
+      <c r="L24">
+        <v>50</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>1.2</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.25</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0.5</v>
+      </c>
+      <c r="AD24">
+        <v>2.5</v>
+      </c>
+      <c r="AE24">
+        <v>2</v>
+      </c>
+      <c r="AF24">
+        <v>1</v>
+      </c>
+      <c r="AG24">
+        <v>5</v>
+      </c>
+      <c r="AH24">
+        <v>15</v>
+      </c>
+      <c r="AI24">
+        <v>2</v>
+      </c>
+      <c r="AK24">
+        <v>0.15</v>
+      </c>
+      <c r="AL24">
         <v>4</v>
       </c>
     </row>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -989,7 +989,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="127">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1360,10 +1360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>远程小兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hero/Archer_Lit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1467,11 +1463,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>近战小兵1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Enemy/Footman_Lit_green</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战boss1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Treeant_green</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1845,10 +1845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL24"/>
+  <dimension ref="A1:AL25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AF28" sqref="AF28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1998,7 +1998,7 @@
         <v>37</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.15">
@@ -2015,10 +2015,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H2">
         <v>10000</v>
@@ -2118,11 +2118,8 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>98</v>
-      </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3">
         <v>34</v>
@@ -2131,10 +2128,10 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H3">
         <v>1000</v>
@@ -2149,7 +2146,7 @@
         <v>600</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="M3">
         <v>3</v>
@@ -2241,10 +2238,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H4">
         <v>1000</v>
@@ -2452,7 +2449,7 @@
         <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2461,10 +2458,10 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" t="s">
         <v>110</v>
-      </c>
-      <c r="G6" t="s">
-        <v>111</v>
       </c>
       <c r="H6">
         <v>10000</v>
@@ -2574,10 +2571,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H7">
         <v>10000</v>
@@ -2687,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H8">
         <v>1000</v>
@@ -2800,10 +2797,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H9">
         <v>10000</v>
@@ -2913,10 +2910,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H10">
         <v>10000</v>
@@ -3026,10 +3023,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H11">
         <v>10000</v>
@@ -3139,10 +3136,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H12">
         <v>10000</v>
@@ -3255,10 +3252,10 @@
         <v>4</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" t="s">
         <v>112</v>
-      </c>
-      <c r="G13" t="s">
-        <v>113</v>
       </c>
       <c r="H13">
         <v>10000</v>
@@ -3371,10 +3368,10 @@
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H14">
         <v>10000</v>
@@ -3487,10 +3484,10 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H15">
         <v>10000</v>
@@ -3600,10 +3597,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H16">
         <v>10000</v>
@@ -3716,10 +3713,10 @@
         <v>18</v>
       </c>
       <c r="F17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" t="s">
         <v>114</v>
-      </c>
-      <c r="G17" t="s">
-        <v>115</v>
       </c>
       <c r="H17">
         <v>10000</v>
@@ -3829,10 +3826,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H18">
         <v>10000</v>
@@ -3945,10 +3942,10 @@
         <v>4</v>
       </c>
       <c r="F19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" t="s">
         <v>104</v>
-      </c>
-      <c r="G19" t="s">
-        <v>105</v>
       </c>
       <c r="H19">
         <v>10000</v>
@@ -4061,10 +4058,10 @@
         <v>4</v>
       </c>
       <c r="F20" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" t="s">
         <v>116</v>
-      </c>
-      <c r="G20" t="s">
-        <v>117</v>
       </c>
       <c r="H20">
         <v>10000</v>
@@ -4177,10 +4174,10 @@
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H21">
         <v>10000</v>
@@ -4293,10 +4290,10 @@
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H22">
         <v>10000</v>
@@ -4409,10 +4406,10 @@
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H23">
         <v>10000</v>
@@ -4509,20 +4506,17 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>125</v>
-      </c>
       <c r="C24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H24">
         <v>1000</v>
@@ -4537,7 +4531,7 @@
         <v>600</v>
       </c>
       <c r="L24">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="M24">
         <v>2</v>
@@ -4612,6 +4606,116 @@
         <v>0.15</v>
       </c>
       <c r="AL24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25">
+        <v>3000</v>
+      </c>
+      <c r="I25">
+        <v>300</v>
+      </c>
+      <c r="J25">
+        <v>100</v>
+      </c>
+      <c r="K25">
+        <v>600</v>
+      </c>
+      <c r="L25">
+        <v>10</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>1.2</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.25</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0.5</v>
+      </c>
+      <c r="AD25">
+        <v>2.5</v>
+      </c>
+      <c r="AE25">
+        <v>2</v>
+      </c>
+      <c r="AF25">
+        <v>1</v>
+      </c>
+      <c r="AG25">
+        <v>5</v>
+      </c>
+      <c r="AH25">
+        <v>15</v>
+      </c>
+      <c r="AI25">
+        <v>2</v>
+      </c>
+      <c r="AK25">
+        <v>0.22</v>
+      </c>
+      <c r="AL25">
         <v>4</v>
       </c>
     </row>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -984,12 +984,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="AM1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//NPC道具掉落信息 逗号分隔概率 分号分隔种类 1,0.02;2,0.03</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="130">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1472,6 +1498,17 @@
   </si>
   <si>
     <t>Enemy/Treeant_green</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPCItemDropInfo</t>
+  </si>
+  <si>
+    <t>1,0.5;2,0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0.5;2,0.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1845,10 +1882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL25"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AO14" sqref="AO14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1883,9 +1920,11 @@
     <col min="32" max="32" width="14" customWidth="1"/>
     <col min="33" max="33" width="14.75" customWidth="1"/>
     <col min="34" max="34" width="14.375" customWidth="1"/>
+    <col min="36" max="36" width="17.5" customWidth="1"/>
+    <col min="39" max="39" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2000,8 +2039,11 @@
       <c r="AL1" s="1" t="s">
         <v>122</v>
       </c>
+      <c r="AM1" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2114,7 +2156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2223,8 +2265,11 @@
       <c r="AL3">
         <v>4</v>
       </c>
+      <c r="AM3" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2337,7 +2382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2441,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2557,7 +2602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2670,7 +2715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2783,7 +2828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2896,7 +2941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3009,7 +3054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3122,7 +3167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3235,7 +3280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3351,7 +3396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3467,7 +3512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3583,7 +3628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3696,7 +3741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3812,7 +3857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3925,7 +3970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4041,7 +4086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4157,7 +4202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4273,7 +4318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4389,7 +4434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4502,7 +4547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4608,8 +4653,11 @@
       <c r="AL24">
         <v>4</v>
       </c>
+      <c r="AM24" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4717,6 +4765,9 @@
       </c>
       <c r="AL25">
         <v>4</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1885,7 +1885,7 @@
   <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AO14" sqref="AO14"/>
+      <selection activeCell="AI33" sqref="AI33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2188,7 +2188,7 @@
         <v>600</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M3">
         <v>3</v>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1884,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AI33" sqref="AI33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2150,7 +2149,7 @@
         <v>39</v>
       </c>
       <c r="AK2">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="AL2">
         <v>4</v>
@@ -2260,7 +2259,7 @@
         <v>2</v>
       </c>
       <c r="AK3">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AL3">
         <v>4</v>
@@ -2480,7 +2479,7 @@
         <v>2</v>
       </c>
       <c r="AK5">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -2709,7 +2708,7 @@
         <v>48</v>
       </c>
       <c r="AK7">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="AL7">
         <v>4</v>
@@ -2822,7 +2821,7 @@
         <v>51</v>
       </c>
       <c r="AK8">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AL8">
         <v>4</v>
@@ -2935,7 +2934,7 @@
         <v>54</v>
       </c>
       <c r="AK9">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="AL9">
         <v>4</v>
@@ -3048,7 +3047,7 @@
         <v>57</v>
       </c>
       <c r="AK10">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="AL10">
         <v>4</v>
@@ -3506,7 +3505,7 @@
         <v>69</v>
       </c>
       <c r="AK14">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="AL14">
         <v>4</v>
@@ -3735,7 +3734,7 @@
         <v>75</v>
       </c>
       <c r="AK16">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="AL16">
         <v>4</v>
@@ -3851,7 +3850,7 @@
         <v>78</v>
       </c>
       <c r="AK17">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="AL17">
         <v>4</v>
@@ -3964,7 +3963,7 @@
         <v>81</v>
       </c>
       <c r="AK18">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="AL18">
         <v>4</v>
@@ -4648,7 +4647,7 @@
         <v>2</v>
       </c>
       <c r="AK24">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AL24">
         <v>4</v>
@@ -4761,7 +4760,7 @@
         <v>2</v>
       </c>
       <c r="AK25">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AL25">
         <v>4</v>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1500,14 +1500,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1,0.5;2,0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0.5;2,0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>NPCItemDropInfo</t>
-  </si>
-  <si>
-    <t>1,0.5;2,0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,0.5;2,0.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1883,8 +1884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AJ4" sqref="AJ4:AJ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2039,7 +2040,7 @@
         <v>122</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.15">
@@ -2265,7 +2266,7 @@
         <v>4</v>
       </c>
       <c r="AM3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.15">
@@ -4653,7 +4654,7 @@
         <v>4</v>
       </c>
       <c r="AM24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.15">
@@ -4766,7 +4767,7 @@
         <v>4</v>
       </c>
       <c r="AM25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1014,7 +1014,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="131">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1500,15 +1500,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,0.5;2,0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,0.5;2,0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NPCItemDropInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0.015;2,0.012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0.015;2,0.012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0.015;2,0.012</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1885,7 +1889,7 @@
   <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AJ4" sqref="AJ4:AJ22"/>
+      <selection activeCell="AM30" sqref="AM30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2040,7 +2044,7 @@
         <v>122</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.15">
@@ -4654,7 +4658,7 @@
         <v>4</v>
       </c>
       <c r="AM24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.15">
@@ -4767,7 +4771,7 @@
         <v>4</v>
       </c>
       <c r="AM25" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -979,11 +979,37 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//死亡到删除的时间</t>
+//碰撞等级</t>
         </r>
       </text>
     </comment>
     <comment ref="AM1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//死亡到删除的时间</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1014,7 +1040,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="132">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1514,6 +1540,9 @@
   <si>
     <t>1,0.015;2,0.012</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollisoinLevel</t>
   </si>
 </sst>
 </file>
@@ -1886,10 +1915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AN25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AM30" sqref="AM30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1925,10 +1954,10 @@
     <col min="33" max="33" width="14.75" customWidth="1"/>
     <col min="34" max="34" width="14.375" customWidth="1"/>
     <col min="36" max="36" width="17.5" customWidth="1"/>
-    <col min="39" max="39" width="17.625" customWidth="1"/>
+    <col min="40" max="40" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2041,13 +2070,16 @@
         <v>37</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2067,7 +2099,7 @@
         <v>104</v>
       </c>
       <c r="H2">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="I2">
         <v>20000</v>
@@ -2157,10 +2189,13 @@
         <v>0.3</v>
       </c>
       <c r="AL2">
+        <v>2</v>
+      </c>
+      <c r="AM2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2180,7 +2215,7 @@
         <v>105</v>
       </c>
       <c r="H3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="I3">
         <v>300</v>
@@ -2192,13 +2227,13 @@
         <v>600</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N3">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -2255,10 +2290,10 @@
         <v>2</v>
       </c>
       <c r="AG3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AI3">
         <v>2</v>
@@ -2267,13 +2302,16 @@
         <v>0.3</v>
       </c>
       <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>4</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2293,25 +2331,25 @@
         <v>104</v>
       </c>
       <c r="H4">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="I4">
-        <v>20000</v>
+        <v>75</v>
       </c>
       <c r="J4">
-        <v>400</v>
+        <v>128</v>
       </c>
       <c r="K4">
         <v>850</v>
       </c>
       <c r="L4">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>3.05</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -2332,25 +2370,25 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V4">
         <v>2</v>
       </c>
       <c r="W4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X4">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Y4">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Z4">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AA4">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB4">
         <v>2.8</v>
@@ -2383,10 +2421,13 @@
         <v>0.3</v>
       </c>
       <c r="AL4">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="AM4">
+        <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2489,8 +2530,11 @@
       <c r="AL5">
         <v>0</v>
       </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2504,7 +2548,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
         <v>109</v>
@@ -2513,10 +2557,10 @@
         <v>110</v>
       </c>
       <c r="H6">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="I6">
-        <v>20000</v>
+        <v>75</v>
       </c>
       <c r="J6">
         <v>100</v>
@@ -2525,13 +2569,13 @@
         <v>700</v>
       </c>
       <c r="L6">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M6">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>2.85</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -2540,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="R6">
         <v>0.25</v>
@@ -2552,25 +2596,25 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="V6">
         <v>2</v>
       </c>
       <c r="W6">
+        <v>18</v>
+      </c>
+      <c r="X6">
+        <v>1.9</v>
+      </c>
+      <c r="Y6">
+        <v>15</v>
+      </c>
+      <c r="Z6">
+        <v>1.4</v>
+      </c>
+      <c r="AA6">
         <v>30</v>
-      </c>
-      <c r="X6">
-        <v>2</v>
-      </c>
-      <c r="Y6">
-        <v>25</v>
-      </c>
-      <c r="Z6">
-        <v>1.5</v>
-      </c>
-      <c r="AA6">
-        <v>35</v>
       </c>
       <c r="AB6">
         <v>2.8</v>
@@ -2603,10 +2647,13 @@
         <v>0.3</v>
       </c>
       <c r="AL6">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="AM6">
+        <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2626,10 +2673,10 @@
         <v>104</v>
       </c>
       <c r="H7">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="I7">
-        <v>20000</v>
+        <v>75</v>
       </c>
       <c r="J7">
         <v>100</v>
@@ -2638,13 +2685,13 @@
         <v>700</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -2665,25 +2712,25 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V7">
         <v>2</v>
       </c>
       <c r="W7">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="X7">
-        <v>2</v>
+        <v>2.415</v>
       </c>
       <c r="Y7">
-        <v>25</v>
+        <v>1.5</v>
       </c>
       <c r="Z7">
-        <v>1.5</v>
+        <v>23</v>
       </c>
       <c r="AA7">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="AB7">
         <v>2.8</v>
@@ -2716,10 +2763,13 @@
         <v>0.3</v>
       </c>
       <c r="AL7">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="AM7">
+        <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2739,10 +2789,10 @@
         <v>104</v>
       </c>
       <c r="H8">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="I8">
-        <v>20000</v>
+        <v>75</v>
       </c>
       <c r="J8">
         <v>100</v>
@@ -2751,13 +2801,13 @@
         <v>700</v>
       </c>
       <c r="L8">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -2766,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <v>0.25</v>
@@ -2784,22 +2834,22 @@
         <v>1</v>
       </c>
       <c r="W8">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="X8">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="Y8">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Z8">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AA8">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="AB8">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="AC8">
         <v>0.5</v>
@@ -2829,10 +2879,13 @@
         <v>0.3</v>
       </c>
       <c r="AL8">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="AM8">
+        <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2852,25 +2905,25 @@
         <v>104</v>
       </c>
       <c r="H9">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="I9">
-        <v>20000</v>
+        <v>75</v>
       </c>
       <c r="J9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K9">
         <v>700</v>
       </c>
       <c r="L9">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="N9">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -2879,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>0.25</v>
@@ -2891,28 +2944,28 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V9">
         <v>2</v>
       </c>
       <c r="W9">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="X9">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="Y9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="Z9">
         <v>1.5</v>
       </c>
       <c r="AA9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="AB9">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="AC9">
         <v>0.68</v>
@@ -2942,10 +2995,13 @@
         <v>0.3</v>
       </c>
       <c r="AL9">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="AM9">
+        <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2965,10 +3021,10 @@
         <v>104</v>
       </c>
       <c r="H10">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="I10">
-        <v>20000</v>
+        <v>75</v>
       </c>
       <c r="J10">
         <v>100</v>
@@ -2977,13 +3033,13 @@
         <v>700</v>
       </c>
       <c r="L10">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="N10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -2992,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R10">
         <v>0.25</v>
@@ -3010,22 +3066,22 @@
         <v>2</v>
       </c>
       <c r="W10">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="X10">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="Y10">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Z10">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AA10">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="AB10">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AC10">
         <v>0.5</v>
@@ -3055,10 +3111,13 @@
         <v>0.3</v>
       </c>
       <c r="AL10">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="AM10">
+        <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3078,10 +3137,10 @@
         <v>104</v>
       </c>
       <c r="H11">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="I11">
-        <v>20000</v>
+        <v>75</v>
       </c>
       <c r="J11">
         <v>100</v>
@@ -3090,13 +3149,13 @@
         <v>700</v>
       </c>
       <c r="L11">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -3105,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>0.25</v>
@@ -3117,28 +3176,28 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V11">
         <v>2</v>
       </c>
       <c r="W11">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="X11">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="Y11">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Z11">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AA11">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="AB11">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="AC11">
         <v>0.7</v>
@@ -3168,10 +3227,13 @@
         <v>0.3</v>
       </c>
       <c r="AL11">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="AM11">
+        <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3191,25 +3253,25 @@
         <v>106</v>
       </c>
       <c r="H12">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="I12">
-        <v>20000</v>
+        <v>75</v>
       </c>
       <c r="J12">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K12">
         <v>700</v>
       </c>
       <c r="L12">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -3236,22 +3298,22 @@
         <v>1</v>
       </c>
       <c r="W12">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X12">
-        <v>2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Y12">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="Z12">
-        <v>1.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AA12">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AC12">
         <v>0.6</v>
@@ -3281,10 +3343,13 @@
         <v>0.3</v>
       </c>
       <c r="AL12">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="AM12">
+        <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3298,7 +3363,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>111</v>
@@ -3307,25 +3372,25 @@
         <v>112</v>
       </c>
       <c r="H13">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="I13">
-        <v>20000</v>
+        <v>75</v>
       </c>
       <c r="J13">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="K13">
         <v>700</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -3334,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R13">
         <v>0.25</v>
@@ -3352,22 +3417,22 @@
         <v>3</v>
       </c>
       <c r="W13">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="X13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y13">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Z13">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AA13">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="AB13">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="AC13">
         <v>0.7</v>
@@ -3397,10 +3462,13 @@
         <v>0.3</v>
       </c>
       <c r="AL13">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="AM13">
+        <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3414,7 +3482,7 @@
         <v>7</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
         <v>101</v>
@@ -3423,10 +3491,10 @@
         <v>104</v>
       </c>
       <c r="H14">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="I14">
-        <v>20000</v>
+        <v>75</v>
       </c>
       <c r="J14">
         <v>100</v>
@@ -3435,13 +3503,13 @@
         <v>700</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -3450,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R14">
         <v>0.25</v>
@@ -3462,28 +3530,28 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V14">
         <v>3</v>
       </c>
       <c r="W14">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="X14">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Y14">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z14">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="AA14">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="AB14">
-        <v>2.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AC14">
         <v>0.8</v>
@@ -3513,10 +3581,13 @@
         <v>0.3</v>
       </c>
       <c r="AL14">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="AM14">
+        <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3530,7 +3601,7 @@
         <v>9</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
         <v>102</v>
@@ -3539,10 +3610,10 @@
         <v>104</v>
       </c>
       <c r="H15">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="I15">
-        <v>20000</v>
+        <v>75</v>
       </c>
       <c r="J15">
         <v>100</v>
@@ -3551,13 +3622,13 @@
         <v>700</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>3.05</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -3578,28 +3649,28 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="V15">
         <v>2</v>
       </c>
       <c r="W15">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="X15">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="Y15">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Z15">
-        <v>1.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AA15">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AB15">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="AC15">
         <v>0.6</v>
@@ -3629,10 +3700,13 @@
         <v>0.3</v>
       </c>
       <c r="AL15">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="AM15">
+        <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3652,10 +3726,10 @@
         <v>107</v>
       </c>
       <c r="H16">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="I16">
-        <v>20000</v>
+        <v>75</v>
       </c>
       <c r="J16">
         <v>100</v>
@@ -3664,13 +3738,13 @@
         <v>700</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -3697,22 +3771,22 @@
         <v>2</v>
       </c>
       <c r="W16">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="X16">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="Y16">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="Z16">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="AA16">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AB16">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="AC16">
         <v>0.55000000000000004</v>
@@ -3742,10 +3816,13 @@
         <v>0.3</v>
       </c>
       <c r="AL16">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="AM16">
+        <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3768,10 +3845,10 @@
         <v>114</v>
       </c>
       <c r="H17">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="I17">
-        <v>20000</v>
+        <v>75</v>
       </c>
       <c r="J17">
         <v>100</v>
@@ -3780,13 +3857,13 @@
         <v>700</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M17">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>2.85</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -3795,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R17">
         <v>0.25</v>
@@ -3813,22 +3890,22 @@
         <v>2</v>
       </c>
       <c r="W17">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="X17">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="Y17">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Z17">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="AA17">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="AB17">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AC17">
         <v>0.5</v>
@@ -3858,10 +3935,13 @@
         <v>0.3</v>
       </c>
       <c r="AL17">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="AM17">
+        <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3881,10 +3961,10 @@
         <v>104</v>
       </c>
       <c r="H18">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="I18">
-        <v>20000</v>
+        <v>75</v>
       </c>
       <c r="J18">
         <v>100</v>
@@ -3893,13 +3973,13 @@
         <v>700</v>
       </c>
       <c r="L18">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="N18">
-        <v>2</v>
+        <v>3.05</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -3920,28 +4000,28 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="V18">
         <v>1</v>
       </c>
       <c r="W18">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="X18">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="Y18">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Z18">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AA18">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AB18">
-        <v>2.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AC18">
         <v>0.5</v>
@@ -3971,10 +4051,13 @@
         <v>0.3</v>
       </c>
       <c r="AL18">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="AM18">
+        <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3988,7 +4071,7 @@
         <v>14</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
         <v>103</v>
@@ -3997,25 +4080,25 @@
         <v>104</v>
       </c>
       <c r="H19">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="I19">
-        <v>20000</v>
+        <v>75</v>
       </c>
       <c r="J19">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K19">
         <v>700</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M19">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N19">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -4036,28 +4119,28 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V19">
         <v>2</v>
       </c>
       <c r="W19">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="X19">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Y19">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="Z19">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="AA19">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="AB19">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="AC19">
         <v>0.7</v>
@@ -4087,10 +4170,13 @@
         <v>0.3</v>
       </c>
       <c r="AL19">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="AM19">
+        <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4104,7 +4190,7 @@
         <v>15</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
         <v>115</v>
@@ -4113,10 +4199,10 @@
         <v>116</v>
       </c>
       <c r="H20">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="I20">
-        <v>20000</v>
+        <v>75</v>
       </c>
       <c r="J20">
         <v>100</v>
@@ -4125,13 +4211,13 @@
         <v>700</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="N20">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -4140,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R20">
         <v>0.25</v>
@@ -4158,22 +4244,22 @@
         <v>2</v>
       </c>
       <c r="W20">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="X20">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Y20">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Z20">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AA20">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="AB20">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="AC20">
         <v>0.5</v>
@@ -4203,10 +4289,13 @@
         <v>0.3</v>
       </c>
       <c r="AL20">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="AM20">
+        <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4220,7 +4309,7 @@
         <v>18</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
         <v>117</v>
@@ -4229,10 +4318,10 @@
         <v>104</v>
       </c>
       <c r="H21">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="I21">
-        <v>20000</v>
+        <v>75</v>
       </c>
       <c r="J21">
         <v>100</v>
@@ -4241,13 +4330,13 @@
         <v>700</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>7</v>
+        <v>4.8</v>
       </c>
       <c r="N21">
-        <v>2</v>
+        <v>2.85</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -4256,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R21">
         <v>0.25</v>
@@ -4274,22 +4363,22 @@
         <v>3</v>
       </c>
       <c r="W21">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="X21">
         <v>2</v>
       </c>
       <c r="Y21">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z21">
+        <v>3.9</v>
+      </c>
+      <c r="AA21">
+        <v>22</v>
+      </c>
+      <c r="AB21">
         <v>1.5</v>
-      </c>
-      <c r="AA21">
-        <v>35</v>
-      </c>
-      <c r="AB21">
-        <v>2.8</v>
       </c>
       <c r="AC21">
         <v>0.5</v>
@@ -4319,10 +4408,13 @@
         <v>0.3</v>
       </c>
       <c r="AL21">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="AM21">
+        <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4345,10 +4437,10 @@
         <v>108</v>
       </c>
       <c r="H22">
-        <v>10000</v>
+        <v>160</v>
       </c>
       <c r="I22">
-        <v>20000</v>
+        <v>75</v>
       </c>
       <c r="J22">
         <v>100</v>
@@ -4357,7 +4449,7 @@
         <v>700</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M22">
         <v>7</v>
@@ -4435,10 +4527,13 @@
         <v>0.3</v>
       </c>
       <c r="AL22">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="AM22">
+        <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4461,10 +4556,10 @@
         <v>104</v>
       </c>
       <c r="H23">
-        <v>10000</v>
+        <v>160</v>
       </c>
       <c r="I23">
-        <v>20000</v>
+        <v>75</v>
       </c>
       <c r="J23">
         <v>100</v>
@@ -4473,7 +4568,7 @@
         <v>700</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M23">
         <v>5</v>
@@ -4548,10 +4643,13 @@
         <v>0.3</v>
       </c>
       <c r="AL23">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="AM23">
+        <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4568,7 +4666,7 @@
         <v>105</v>
       </c>
       <c r="H24">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I24">
         <v>300</v>
@@ -4580,13 +4678,13 @@
         <v>600</v>
       </c>
       <c r="L24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="N24">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -4643,10 +4741,10 @@
         <v>1</v>
       </c>
       <c r="AG24">
+        <v>2</v>
+      </c>
+      <c r="AH24">
         <v>5</v>
-      </c>
-      <c r="AH24">
-        <v>15</v>
       </c>
       <c r="AI24">
         <v>2</v>
@@ -4655,13 +4753,16 @@
         <v>0.3</v>
       </c>
       <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>4</v>
       </c>
-      <c r="AM24" t="s">
+      <c r="AN24" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4693,13 +4794,13 @@
         <v>600</v>
       </c>
       <c r="L25">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="N25">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -4756,10 +4857,10 @@
         <v>1</v>
       </c>
       <c r="AG25">
+        <v>2</v>
+      </c>
+      <c r="AH25">
         <v>5</v>
-      </c>
-      <c r="AH25">
-        <v>15</v>
       </c>
       <c r="AI25">
         <v>2</v>
@@ -4768,9 +4869,12 @@
         <v>0.3</v>
       </c>
       <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>4</v>
       </c>
-      <c r="AM25" t="s">
+      <c r="AN25" t="s">
         <v>130</v>
       </c>
     </row>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1918,7 +1918,7 @@
   <dimension ref="A1:AN25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2321,6 +2321,9 @@
       <c r="C4" t="s">
         <v>92</v>
       </c>
+      <c r="D4">
+        <v>41</v>
+      </c>
       <c r="E4">
         <v>0</v>
       </c>
@@ -2663,6 +2666,9 @@
       <c r="C7" t="s">
         <v>47</v>
       </c>
+      <c r="D7">
+        <v>45</v>
+      </c>
       <c r="E7">
         <v>0</v>
       </c>
@@ -2779,6 +2785,9 @@
       <c r="C8" t="s">
         <v>50</v>
       </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
       <c r="E8">
         <v>0</v>
       </c>
@@ -2895,6 +2904,9 @@
       <c r="C9" t="s">
         <v>53</v>
       </c>
+      <c r="D9">
+        <v>54</v>
+      </c>
       <c r="E9">
         <v>0</v>
       </c>
@@ -3011,6 +3023,9 @@
       <c r="C10" t="s">
         <v>56</v>
       </c>
+      <c r="D10">
+        <v>57</v>
+      </c>
       <c r="E10">
         <v>0</v>
       </c>
@@ -3127,6 +3142,9 @@
       <c r="C11" t="s">
         <v>59</v>
       </c>
+      <c r="D11">
+        <v>61</v>
+      </c>
       <c r="E11">
         <v>0</v>
       </c>
@@ -3152,7 +3170,7 @@
         <v>24</v>
       </c>
       <c r="M11">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="N11">
         <v>3.2</v>
@@ -3243,6 +3261,9 @@
       <c r="C12" t="s">
         <v>62</v>
       </c>
+      <c r="D12">
+        <v>64</v>
+      </c>
       <c r="E12">
         <v>0</v>
       </c>
@@ -3716,6 +3737,9 @@
       <c r="C16" t="s">
         <v>74</v>
       </c>
+      <c r="D16">
+        <v>73</v>
+      </c>
       <c r="E16">
         <v>0</v>
       </c>
@@ -3950,6 +3974,9 @@
       </c>
       <c r="C18" t="s">
         <v>80</v>
+      </c>
+      <c r="D18">
+        <v>77</v>
       </c>
       <c r="E18">
         <v>0</v>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1917,8 +1917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AA27" sqref="AA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2727,19 +2727,19 @@
         <v>24</v>
       </c>
       <c r="X7">
-        <v>2.415</v>
+        <v>2.4</v>
       </c>
       <c r="Y7">
+        <v>15</v>
+      </c>
+      <c r="Z7">
         <v>1.5</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>23</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>3</v>
-      </c>
-      <c r="AB7">
-        <v>2.8</v>
       </c>
       <c r="AC7">
         <v>0.5</v>
@@ -4878,7 +4878,7 @@
         <v>2.5</v>
       </c>
       <c r="AE25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF25">
         <v>1</v>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1917,8 +1917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AA27" sqref="AA27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4683,6 +4683,9 @@
       <c r="C24" t="s">
         <v>124</v>
       </c>
+      <c r="D24">
+        <v>110</v>
+      </c>
       <c r="E24">
         <v>0</v>
       </c>
@@ -4798,6 +4801,9 @@
       </c>
       <c r="C25" t="s">
         <v>126</v>
+      </c>
+      <c r="D25">
+        <v>111</v>
       </c>
       <c r="E25">
         <v>0</v>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1040,7 +1040,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="162">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1183,10 +1183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剑圣治疗棒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5,6,8,7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1518,10 +1514,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>近战boss1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Enemy/Treeant_green</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1530,19 +1522,135 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,0.015;2,0.012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,0.015;2,0.012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,0.015;2,0.012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CollisoinLevel</t>
+  </si>
+  <si>
+    <t>治疗柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0.015;2,0.015;3,0.015;4,0.012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,0.15;6,0.15;7,0.15;12,0.12;13,0.12;14,0.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Footman_Lit_blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Mage_Lit_blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,0.015;6,0.015;7,0.015;11,0.012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22,0.015;23,0.015;24,0.015;25,0.012;26,0.012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,0.15;9,0.15;10,0.15;18,0.12;19,0.12;20,0.12;21,0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Footman_Lit_purple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Mage_Lit_purple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32,0.015;33,0.015;34,0.015;5,0.012;6,0.012;7,0.012</t>
+  </si>
+  <si>
+    <t>32,0.015;33,0.015;34,0.015;5,0.012;6,0.012;7,0.012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,0.15;36,0.15;43,0.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Footman_Lit_orange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Footman_Lit_red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Mage_Lit_red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Mage_Lit_orange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss5_a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,0.015;9,0.015;10,0.015;18,0.015;19,0.015;20,0.015;21,0.015;27,0.015;28,0.015;29,0.015;30,0.015;41,0.015;</t>
+  </si>
+  <si>
+    <t>42,0.015;43,0.015;86,0.015;87,0.015;88,0.015;90,0.015;91,0.015;92,0.015;93,0.015;94,0.015;95,0.015;96,0.015;97,0.015;</t>
+  </si>
+  <si>
+    <t>89,0.1;87,0.1;88,0.1;</t>
+  </si>
+  <si>
+    <t>8,0.02;9,0.02;10,0.02;18,0.02;19,0.02;20,0.02;21,0.02;27,0.02;28,0.02;29,0.02;30,0.02;41,0.02;</t>
+  </si>
+  <si>
+    <t>42,0.02;43,0.02;86,0.02;87,0.02;88,0.02;90,0.02;91,0.02;92,0.02;93,0.02;94,0.02;95,0.02;96,0.015;97,0.02;</t>
+  </si>
+  <si>
+    <t>89,0.15;87,0.15;88,0.15;</t>
+  </si>
+  <si>
+    <t>8,0.025;9,0.025;10,0.025;18,0.025;19,0.025;20,0.025;21,0.025;27,0.025;28,0.025;29,0.025;30,0.025;41,0.025;</t>
+  </si>
+  <si>
+    <t>42,0.025;43,0.025;86,0.025;87,0.025;88,0.025;90,0.025;91,0.025;92,0.025;93,0.025;94,0.025;95,0.025;96,0.025;97,0.025;</t>
+  </si>
+  <si>
+    <t>89,0.18;87,0.18;88,0.18;</t>
+  </si>
+  <si>
+    <t>54,0.01;55,0.01;58,0.01;59,0.01;60,0.01;61,0.01;62,0.01;63,0.01;64,0.01;74,0.01;83,0.01;84,0.01;85,0.01;</t>
+  </si>
+  <si>
+    <t>54,0.003;55,0.003;58,0.003;59,0.003;60,0.003;61,0.003;62,0.003;63,0.003;64,0.003;74,0.003;83,0.003;84,0.003;85,0.003;</t>
   </si>
 </sst>
 </file>
@@ -1915,16 +2023,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN25"/>
+  <dimension ref="A1:AN44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="Y7" workbookViewId="0">
+      <selection activeCell="AN49" sqref="AN49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="28.125" customWidth="1"/>
     <col min="4" max="4" width="31.375" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="7" width="20.875" customWidth="1"/>
@@ -2070,13 +2178,13 @@
         <v>37</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.15">
@@ -2087,16 +2195,16 @@
         <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H2">
         <v>100</v>
@@ -2200,19 +2308,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D3">
         <v>34</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H3">
         <v>300</v>
@@ -2319,7 +2427,7 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>41</v>
@@ -2328,10 +2436,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H4">
         <v>200</v>
@@ -2418,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="AJ4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AK4">
         <v>0.3</v>
@@ -2435,10 +2543,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2542,10 +2650,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2554,10 +2662,10 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" t="s">
         <v>109</v>
-      </c>
-      <c r="G6" t="s">
-        <v>110</v>
       </c>
       <c r="H6">
         <v>200</v>
@@ -2644,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="AJ6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AK6">
         <v>0.3</v>
@@ -2661,10 +2769,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
         <v>46</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
       </c>
       <c r="D7">
         <v>45</v>
@@ -2673,10 +2781,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H7">
         <v>200</v>
@@ -2763,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="AJ7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AK7">
         <v>0.3</v>
@@ -2780,10 +2888,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
         <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>50</v>
       </c>
       <c r="D8">
         <v>50</v>
@@ -2792,10 +2900,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H8">
         <v>200</v>
@@ -2882,7 +2990,7 @@
         <v>1</v>
       </c>
       <c r="AJ8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AK8">
         <v>0.3</v>
@@ -2899,10 +3007,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
         <v>52</v>
-      </c>
-      <c r="C9" t="s">
-        <v>53</v>
       </c>
       <c r="D9">
         <v>54</v>
@@ -2911,10 +3019,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H9">
         <v>200</v>
@@ -3001,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="AJ9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AK9">
         <v>0.3</v>
@@ -3018,10 +3126,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
         <v>55</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
       </c>
       <c r="D10">
         <v>57</v>
@@ -3030,10 +3138,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H10">
         <v>200</v>
@@ -3120,7 +3228,7 @@
         <v>1</v>
       </c>
       <c r="AJ10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK10">
         <v>0.3</v>
@@ -3137,10 +3245,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
         <v>58</v>
-      </c>
-      <c r="C11" t="s">
-        <v>59</v>
       </c>
       <c r="D11">
         <v>61</v>
@@ -3149,10 +3257,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H11">
         <v>200</v>
@@ -3239,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="AJ11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK11">
         <v>0.3</v>
@@ -3256,10 +3364,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
         <v>61</v>
-      </c>
-      <c r="C12" t="s">
-        <v>62</v>
       </c>
       <c r="D12">
         <v>64</v>
@@ -3268,10 +3376,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H12">
         <v>200</v>
@@ -3358,7 +3466,7 @@
         <v>1</v>
       </c>
       <c r="AJ12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK12">
         <v>0.3</v>
@@ -3375,10 +3483,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
         <v>64</v>
-      </c>
-      <c r="C13" t="s">
-        <v>65</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -3387,10 +3495,10 @@
         <v>7</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" t="s">
         <v>111</v>
-      </c>
-      <c r="G13" t="s">
-        <v>112</v>
       </c>
       <c r="H13">
         <v>200</v>
@@ -3477,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="AJ13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AK13">
         <v>0.3</v>
@@ -3494,10 +3602,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14">
         <v>7</v>
@@ -3506,10 +3614,10 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H14">
         <v>200</v>
@@ -3596,7 +3704,7 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AK14">
         <v>0.3</v>
@@ -3613,10 +3721,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
         <v>70</v>
-      </c>
-      <c r="C15" t="s">
-        <v>71</v>
       </c>
       <c r="D15">
         <v>9</v>
@@ -3625,10 +3733,10 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H15">
         <v>200</v>
@@ -3715,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="AJ15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AK15">
         <v>0.3</v>
@@ -3732,10 +3840,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
         <v>73</v>
-      </c>
-      <c r="C16" t="s">
-        <v>74</v>
       </c>
       <c r="D16">
         <v>73</v>
@@ -3744,10 +3852,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H16">
         <v>200</v>
@@ -3834,7 +3942,7 @@
         <v>1</v>
       </c>
       <c r="AJ16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AK16">
         <v>0.3</v>
@@ -3851,10 +3959,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
         <v>76</v>
-      </c>
-      <c r="C17" t="s">
-        <v>77</v>
       </c>
       <c r="D17">
         <v>12</v>
@@ -3863,10 +3971,10 @@
         <v>18</v>
       </c>
       <c r="F17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" t="s">
         <v>113</v>
-      </c>
-      <c r="G17" t="s">
-        <v>114</v>
       </c>
       <c r="H17">
         <v>200</v>
@@ -3953,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="AJ17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AK17">
         <v>0.3</v>
@@ -3970,10 +4078,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
         <v>79</v>
-      </c>
-      <c r="C18" t="s">
-        <v>80</v>
       </c>
       <c r="D18">
         <v>77</v>
@@ -3982,10 +4090,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H18">
         <v>200</v>
@@ -4072,7 +4180,7 @@
         <v>1</v>
       </c>
       <c r="AJ18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK18">
         <v>0.3</v>
@@ -4089,10 +4197,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
         <v>82</v>
-      </c>
-      <c r="C19" t="s">
-        <v>83</v>
       </c>
       <c r="D19">
         <v>14</v>
@@ -4101,10 +4209,10 @@
         <v>6</v>
       </c>
       <c r="F19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" t="s">
         <v>103</v>
-      </c>
-      <c r="G19" t="s">
-        <v>104</v>
       </c>
       <c r="H19">
         <v>200</v>
@@ -4191,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AJ19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AK19">
         <v>0.3</v>
@@ -4208,10 +4316,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" t="s">
         <v>85</v>
-      </c>
-      <c r="C20" t="s">
-        <v>86</v>
       </c>
       <c r="D20">
         <v>15</v>
@@ -4220,10 +4328,10 @@
         <v>6</v>
       </c>
       <c r="F20" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" t="s">
         <v>115</v>
-      </c>
-      <c r="G20" t="s">
-        <v>116</v>
       </c>
       <c r="H20">
         <v>200</v>
@@ -4310,7 +4418,7 @@
         <v>1</v>
       </c>
       <c r="AJ20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK20">
         <v>0.3</v>
@@ -4327,10 +4435,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
         <v>88</v>
-      </c>
-      <c r="C21" t="s">
-        <v>89</v>
       </c>
       <c r="D21">
         <v>18</v>
@@ -4339,10 +4447,10 @@
         <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H21">
         <v>200</v>
@@ -4429,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="AJ21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AK21">
         <v>0.3</v>
@@ -4446,10 +4554,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" t="s">
         <v>93</v>
-      </c>
-      <c r="C22" t="s">
-        <v>94</v>
       </c>
       <c r="D22" t="s">
         <v>35</v>
@@ -4458,10 +4566,10 @@
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H22">
         <v>160</v>
@@ -4548,7 +4656,7 @@
         <v>1</v>
       </c>
       <c r="AJ22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK22">
         <v>0.3</v>
@@ -4565,10 +4673,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" t="s">
         <v>96</v>
-      </c>
-      <c r="C23" t="s">
-        <v>97</v>
       </c>
       <c r="D23" t="s">
         <v>35</v>
@@ -4577,10 +4685,10 @@
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H23">
         <v>160</v>
@@ -4681,7 +4789,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D24">
         <v>110</v>
@@ -4690,10 +4798,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H24">
         <v>500</v>
@@ -4789,7 +4897,7 @@
         <v>4</v>
       </c>
       <c r="AN24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.15">
@@ -4797,10 +4905,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D25">
         <v>111</v>
@@ -4809,10 +4917,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H25">
         <v>3000</v>
@@ -4908,13 +5016,2238 @@
         <v>4</v>
       </c>
       <c r="AN25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
         <v>130</v>
+      </c>
+      <c r="D26">
+        <v>110</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26">
+        <v>700</v>
+      </c>
+      <c r="I26">
+        <v>300</v>
+      </c>
+      <c r="J26">
+        <v>100</v>
+      </c>
+      <c r="K26">
+        <v>600</v>
+      </c>
+      <c r="L26">
+        <v>20</v>
+      </c>
+      <c r="M26">
+        <v>1.5</v>
+      </c>
+      <c r="N26">
+        <v>1.8</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0.25</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0.5</v>
+      </c>
+      <c r="AD26">
+        <v>2.5</v>
+      </c>
+      <c r="AE26">
+        <v>2</v>
+      </c>
+      <c r="AF26">
+        <v>1</v>
+      </c>
+      <c r="AG26">
+        <v>2</v>
+      </c>
+      <c r="AH26">
+        <v>5</v>
+      </c>
+      <c r="AI26">
+        <v>2</v>
+      </c>
+      <c r="AK26">
+        <v>0.3</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
+        <v>4</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27">
+        <v>400</v>
+      </c>
+      <c r="I27">
+        <v>300</v>
+      </c>
+      <c r="J27">
+        <v>100</v>
+      </c>
+      <c r="K27">
+        <v>600</v>
+      </c>
+      <c r="L27">
+        <v>25</v>
+      </c>
+      <c r="M27">
+        <v>4</v>
+      </c>
+      <c r="N27">
+        <v>1.5</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0.25</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0.8</v>
+      </c>
+      <c r="AD27">
+        <v>2.5</v>
+      </c>
+      <c r="AE27">
+        <v>2</v>
+      </c>
+      <c r="AF27">
+        <v>2</v>
+      </c>
+      <c r="AG27">
+        <v>4</v>
+      </c>
+      <c r="AH27">
+        <v>6</v>
+      </c>
+      <c r="AI27">
+        <v>2</v>
+      </c>
+      <c r="AK27">
+        <v>0.3</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
+        <v>4</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28">
+        <v>111</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28">
+        <v>5000</v>
+      </c>
+      <c r="I28">
+        <v>300</v>
+      </c>
+      <c r="J28">
+        <v>100</v>
+      </c>
+      <c r="K28">
+        <v>600</v>
+      </c>
+      <c r="L28">
+        <v>80</v>
+      </c>
+      <c r="M28">
+        <v>1.5</v>
+      </c>
+      <c r="N28">
+        <v>1.8</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0.25</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0.5</v>
+      </c>
+      <c r="AD28">
+        <v>2.5</v>
+      </c>
+      <c r="AE28">
+        <v>4</v>
+      </c>
+      <c r="AF28">
+        <v>1</v>
+      </c>
+      <c r="AG28">
+        <v>2</v>
+      </c>
+      <c r="AH28">
+        <v>5</v>
+      </c>
+      <c r="AI28">
+        <v>2</v>
+      </c>
+      <c r="AK28">
+        <v>0.3</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
+        <v>4</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29">
+        <v>110</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29">
+        <v>700</v>
+      </c>
+      <c r="I29">
+        <v>300</v>
+      </c>
+      <c r="J29">
+        <v>100</v>
+      </c>
+      <c r="K29">
+        <v>600</v>
+      </c>
+      <c r="L29">
+        <v>30</v>
+      </c>
+      <c r="M29">
+        <v>1.5</v>
+      </c>
+      <c r="N29">
+        <v>1.8</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0.25</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0.5</v>
+      </c>
+      <c r="AD29">
+        <v>2.5</v>
+      </c>
+      <c r="AE29">
+        <v>2</v>
+      </c>
+      <c r="AF29">
+        <v>1</v>
+      </c>
+      <c r="AG29">
+        <v>2</v>
+      </c>
+      <c r="AH29">
+        <v>5</v>
+      </c>
+      <c r="AI29">
+        <v>2</v>
+      </c>
+      <c r="AK29">
+        <v>0.3</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
+        <v>4</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30">
+        <v>34</v>
+      </c>
+      <c r="E30">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" t="s">
+        <v>104</v>
+      </c>
+      <c r="H30">
+        <v>400</v>
+      </c>
+      <c r="I30">
+        <v>300</v>
+      </c>
+      <c r="J30">
+        <v>100</v>
+      </c>
+      <c r="K30">
+        <v>600</v>
+      </c>
+      <c r="L30">
+        <v>30</v>
+      </c>
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30">
+        <v>1.5</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0.25</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0.8</v>
+      </c>
+      <c r="AD30">
+        <v>2.5</v>
+      </c>
+      <c r="AE30">
+        <v>2</v>
+      </c>
+      <c r="AF30">
+        <v>2</v>
+      </c>
+      <c r="AG30">
+        <v>4</v>
+      </c>
+      <c r="AH30">
+        <v>6</v>
+      </c>
+      <c r="AI30">
+        <v>2</v>
+      </c>
+      <c r="AK30">
+        <v>0.3</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
+        <v>4</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31">
+        <v>111</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31" t="s">
+        <v>104</v>
+      </c>
+      <c r="H31">
+        <v>5000</v>
+      </c>
+      <c r="I31">
+        <v>300</v>
+      </c>
+      <c r="J31">
+        <v>100</v>
+      </c>
+      <c r="K31">
+        <v>600</v>
+      </c>
+      <c r="L31">
+        <v>100</v>
+      </c>
+      <c r="M31">
+        <v>1.5</v>
+      </c>
+      <c r="N31">
+        <v>1.8</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0.25</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0.5</v>
+      </c>
+      <c r="AD31">
+        <v>2.5</v>
+      </c>
+      <c r="AE31">
+        <v>4</v>
+      </c>
+      <c r="AF31">
+        <v>1</v>
+      </c>
+      <c r="AG31">
+        <v>2</v>
+      </c>
+      <c r="AH31">
+        <v>5</v>
+      </c>
+      <c r="AI31">
+        <v>2</v>
+      </c>
+      <c r="AK31">
+        <v>0.3</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
+        <v>4</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32">
+        <v>110</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" t="s">
+        <v>104</v>
+      </c>
+      <c r="H32">
+        <v>800</v>
+      </c>
+      <c r="I32">
+        <v>300</v>
+      </c>
+      <c r="J32">
+        <v>100</v>
+      </c>
+      <c r="K32">
+        <v>600</v>
+      </c>
+      <c r="L32">
+        <v>40</v>
+      </c>
+      <c r="M32">
+        <v>1.5</v>
+      </c>
+      <c r="N32">
+        <v>1.8</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>5</v>
+      </c>
+      <c r="R32">
+        <v>0.25</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0.5</v>
+      </c>
+      <c r="AD32">
+        <v>2.5</v>
+      </c>
+      <c r="AE32">
+        <v>2</v>
+      </c>
+      <c r="AF32">
+        <v>1</v>
+      </c>
+      <c r="AG32">
+        <v>2</v>
+      </c>
+      <c r="AH32">
+        <v>5</v>
+      </c>
+      <c r="AI32">
+        <v>2</v>
+      </c>
+      <c r="AK32">
+        <v>0.3</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
+        <v>4</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33">
+        <v>34</v>
+      </c>
+      <c r="E33">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33">
+        <v>500</v>
+      </c>
+      <c r="I33">
+        <v>300</v>
+      </c>
+      <c r="J33">
+        <v>100</v>
+      </c>
+      <c r="K33">
+        <v>600</v>
+      </c>
+      <c r="L33">
+        <v>40</v>
+      </c>
+      <c r="M33">
+        <v>4</v>
+      </c>
+      <c r="N33">
+        <v>1.5</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>5</v>
+      </c>
+      <c r="R33">
+        <v>0.25</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0.8</v>
+      </c>
+      <c r="AD33">
+        <v>2.5</v>
+      </c>
+      <c r="AE33">
+        <v>2</v>
+      </c>
+      <c r="AF33">
+        <v>2</v>
+      </c>
+      <c r="AG33">
+        <v>4</v>
+      </c>
+      <c r="AH33">
+        <v>6</v>
+      </c>
+      <c r="AI33">
+        <v>2</v>
+      </c>
+      <c r="AK33">
+        <v>0.3</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
+        <v>4</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34">
+        <v>111</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" t="s">
+        <v>104</v>
+      </c>
+      <c r="H34">
+        <v>6000</v>
+      </c>
+      <c r="I34">
+        <v>300</v>
+      </c>
+      <c r="J34">
+        <v>100</v>
+      </c>
+      <c r="K34">
+        <v>600</v>
+      </c>
+      <c r="L34">
+        <v>150</v>
+      </c>
+      <c r="M34">
+        <v>1.5</v>
+      </c>
+      <c r="N34">
+        <v>1.8</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>5</v>
+      </c>
+      <c r="R34">
+        <v>0.25</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0.5</v>
+      </c>
+      <c r="AD34">
+        <v>2.5</v>
+      </c>
+      <c r="AE34">
+        <v>4</v>
+      </c>
+      <c r="AF34">
+        <v>1</v>
+      </c>
+      <c r="AG34">
+        <v>2</v>
+      </c>
+      <c r="AH34">
+        <v>5</v>
+      </c>
+      <c r="AI34">
+        <v>2</v>
+      </c>
+      <c r="AK34">
+        <v>0.3</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
+        <v>4</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35">
+        <v>110</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35">
+        <v>1000</v>
+      </c>
+      <c r="I35">
+        <v>300</v>
+      </c>
+      <c r="J35">
+        <v>100</v>
+      </c>
+      <c r="K35">
+        <v>600</v>
+      </c>
+      <c r="L35">
+        <v>60</v>
+      </c>
+      <c r="M35">
+        <v>1.5</v>
+      </c>
+      <c r="N35">
+        <v>1.8</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>8</v>
+      </c>
+      <c r="R35">
+        <v>0.25</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0.5</v>
+      </c>
+      <c r="AD35">
+        <v>2.5</v>
+      </c>
+      <c r="AE35">
+        <v>2</v>
+      </c>
+      <c r="AF35">
+        <v>1</v>
+      </c>
+      <c r="AG35">
+        <v>2</v>
+      </c>
+      <c r="AH35">
+        <v>5</v>
+      </c>
+      <c r="AI35">
+        <v>2</v>
+      </c>
+      <c r="AK35">
+        <v>0.3</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
+        <v>4</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36">
+        <v>34</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" t="s">
+        <v>104</v>
+      </c>
+      <c r="H36">
+        <v>600</v>
+      </c>
+      <c r="I36">
+        <v>300</v>
+      </c>
+      <c r="J36">
+        <v>100</v>
+      </c>
+      <c r="K36">
+        <v>600</v>
+      </c>
+      <c r="L36">
+        <v>60</v>
+      </c>
+      <c r="M36">
+        <v>4</v>
+      </c>
+      <c r="N36">
+        <v>1.5</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>8</v>
+      </c>
+      <c r="R36">
+        <v>0.25</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0.8</v>
+      </c>
+      <c r="AD36">
+        <v>2.5</v>
+      </c>
+      <c r="AE36">
+        <v>2</v>
+      </c>
+      <c r="AF36">
+        <v>2</v>
+      </c>
+      <c r="AG36">
+        <v>4</v>
+      </c>
+      <c r="AH36">
+        <v>6</v>
+      </c>
+      <c r="AI36">
+        <v>2</v>
+      </c>
+      <c r="AK36">
+        <v>0.3</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
+        <v>4</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37">
+        <v>111</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37" t="s">
+        <v>104</v>
+      </c>
+      <c r="H37">
+        <v>6000</v>
+      </c>
+      <c r="I37">
+        <v>300</v>
+      </c>
+      <c r="J37">
+        <v>100</v>
+      </c>
+      <c r="K37">
+        <v>600</v>
+      </c>
+      <c r="L37">
+        <v>200</v>
+      </c>
+      <c r="M37">
+        <v>1.5</v>
+      </c>
+      <c r="N37">
+        <v>1.8</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>8</v>
+      </c>
+      <c r="R37">
+        <v>0.25</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0.5</v>
+      </c>
+      <c r="AD37">
+        <v>2.5</v>
+      </c>
+      <c r="AE37">
+        <v>4</v>
+      </c>
+      <c r="AF37">
+        <v>1</v>
+      </c>
+      <c r="AG37">
+        <v>2</v>
+      </c>
+      <c r="AH37">
+        <v>5</v>
+      </c>
+      <c r="AI37">
+        <v>2</v>
+      </c>
+      <c r="AK37">
+        <v>0.3</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
+        <v>4</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38">
+        <v>110</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>99</v>
+      </c>
+      <c r="G38" t="s">
+        <v>104</v>
+      </c>
+      <c r="H38">
+        <v>1200</v>
+      </c>
+      <c r="I38">
+        <v>300</v>
+      </c>
+      <c r="J38">
+        <v>100</v>
+      </c>
+      <c r="K38">
+        <v>600</v>
+      </c>
+      <c r="L38">
+        <v>80</v>
+      </c>
+      <c r="M38">
+        <v>1.5</v>
+      </c>
+      <c r="N38">
+        <v>1.8</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>12</v>
+      </c>
+      <c r="R38">
+        <v>0.25</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0.5</v>
+      </c>
+      <c r="AD38">
+        <v>2.5</v>
+      </c>
+      <c r="AE38">
+        <v>2</v>
+      </c>
+      <c r="AF38">
+        <v>1</v>
+      </c>
+      <c r="AG38">
+        <v>2</v>
+      </c>
+      <c r="AH38">
+        <v>5</v>
+      </c>
+      <c r="AI38">
+        <v>2</v>
+      </c>
+      <c r="AK38">
+        <v>0.3</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
+        <v>4</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39">
+        <v>34</v>
+      </c>
+      <c r="E39">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" t="s">
+        <v>104</v>
+      </c>
+      <c r="H39">
+        <v>700</v>
+      </c>
+      <c r="I39">
+        <v>300</v>
+      </c>
+      <c r="J39">
+        <v>100</v>
+      </c>
+      <c r="K39">
+        <v>600</v>
+      </c>
+      <c r="L39">
+        <v>70</v>
+      </c>
+      <c r="M39">
+        <v>4</v>
+      </c>
+      <c r="N39">
+        <v>1.5</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>8</v>
+      </c>
+      <c r="R39">
+        <v>0.25</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0.8</v>
+      </c>
+      <c r="AD39">
+        <v>2.5</v>
+      </c>
+      <c r="AE39">
+        <v>2</v>
+      </c>
+      <c r="AF39">
+        <v>2</v>
+      </c>
+      <c r="AG39">
+        <v>4</v>
+      </c>
+      <c r="AH39">
+        <v>6</v>
+      </c>
+      <c r="AI39">
+        <v>2</v>
+      </c>
+      <c r="AK39">
+        <v>0.3</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
+        <v>4</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40">
+        <v>111</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>99</v>
+      </c>
+      <c r="G40" t="s">
+        <v>104</v>
+      </c>
+      <c r="H40">
+        <v>10000</v>
+      </c>
+      <c r="I40">
+        <v>300</v>
+      </c>
+      <c r="J40">
+        <v>100</v>
+      </c>
+      <c r="K40">
+        <v>600</v>
+      </c>
+      <c r="L40">
+        <v>300</v>
+      </c>
+      <c r="M40">
+        <v>1.5</v>
+      </c>
+      <c r="N40">
+        <v>1.8</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>20</v>
+      </c>
+      <c r="R40">
+        <v>0.25</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>0.5</v>
+      </c>
+      <c r="AD40">
+        <v>2.5</v>
+      </c>
+      <c r="AE40">
+        <v>4</v>
+      </c>
+      <c r="AF40">
+        <v>1</v>
+      </c>
+      <c r="AG40">
+        <v>2</v>
+      </c>
+      <c r="AH40">
+        <v>5</v>
+      </c>
+      <c r="AI40">
+        <v>2</v>
+      </c>
+      <c r="AK40">
+        <v>0.3</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
+        <v>4</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41">
+        <v>110</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>99</v>
+      </c>
+      <c r="G41" t="s">
+        <v>104</v>
+      </c>
+      <c r="H41">
+        <v>1500</v>
+      </c>
+      <c r="I41">
+        <v>300</v>
+      </c>
+      <c r="J41">
+        <v>100</v>
+      </c>
+      <c r="K41">
+        <v>600</v>
+      </c>
+      <c r="L41">
+        <v>100</v>
+      </c>
+      <c r="M41">
+        <v>1.5</v>
+      </c>
+      <c r="N41">
+        <v>1.8</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>12</v>
+      </c>
+      <c r="R41">
+        <v>0.25</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>0.5</v>
+      </c>
+      <c r="AD41">
+        <v>2.5</v>
+      </c>
+      <c r="AE41">
+        <v>2</v>
+      </c>
+      <c r="AF41">
+        <v>1</v>
+      </c>
+      <c r="AG41">
+        <v>2</v>
+      </c>
+      <c r="AH41">
+        <v>5</v>
+      </c>
+      <c r="AI41">
+        <v>2</v>
+      </c>
+      <c r="AK41">
+        <v>0.3</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
+        <v>4</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42">
+        <v>34</v>
+      </c>
+      <c r="E42">
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H42">
+        <v>1000</v>
+      </c>
+      <c r="I42">
+        <v>300</v>
+      </c>
+      <c r="J42">
+        <v>100</v>
+      </c>
+      <c r="K42">
+        <v>600</v>
+      </c>
+      <c r="L42">
+        <v>120</v>
+      </c>
+      <c r="M42">
+        <v>4</v>
+      </c>
+      <c r="N42">
+        <v>1.5</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>8</v>
+      </c>
+      <c r="R42">
+        <v>0.25</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>1</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>0.8</v>
+      </c>
+      <c r="AD42">
+        <v>2.5</v>
+      </c>
+      <c r="AE42">
+        <v>2</v>
+      </c>
+      <c r="AF42">
+        <v>2</v>
+      </c>
+      <c r="AG42">
+        <v>4</v>
+      </c>
+      <c r="AH42">
+        <v>6</v>
+      </c>
+      <c r="AI42">
+        <v>2</v>
+      </c>
+      <c r="AK42">
+        <v>0.3</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
+        <v>4</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43">
+        <v>111</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H43">
+        <v>20000</v>
+      </c>
+      <c r="I43">
+        <v>300</v>
+      </c>
+      <c r="J43">
+        <v>100</v>
+      </c>
+      <c r="K43">
+        <v>600</v>
+      </c>
+      <c r="L43">
+        <v>500</v>
+      </c>
+      <c r="M43">
+        <v>1.5</v>
+      </c>
+      <c r="N43">
+        <v>1.8</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>20</v>
+      </c>
+      <c r="R43">
+        <v>0.25</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>1</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>0.5</v>
+      </c>
+      <c r="AD43">
+        <v>2.5</v>
+      </c>
+      <c r="AE43">
+        <v>4</v>
+      </c>
+      <c r="AF43">
+        <v>1</v>
+      </c>
+      <c r="AG43">
+        <v>2</v>
+      </c>
+      <c r="AH43">
+        <v>5</v>
+      </c>
+      <c r="AI43">
+        <v>2</v>
+      </c>
+      <c r="AK43">
+        <v>0.3</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
+        <v>4</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44">
+        <v>111</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>99</v>
+      </c>
+      <c r="G44" t="s">
+        <v>104</v>
+      </c>
+      <c r="H44">
+        <v>15000</v>
+      </c>
+      <c r="I44">
+        <v>300</v>
+      </c>
+      <c r="J44">
+        <v>100</v>
+      </c>
+      <c r="K44">
+        <v>600</v>
+      </c>
+      <c r="L44">
+        <v>300</v>
+      </c>
+      <c r="M44">
+        <v>1.5</v>
+      </c>
+      <c r="N44">
+        <v>1.8</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>20</v>
+      </c>
+      <c r="R44">
+        <v>0.25</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>0.5</v>
+      </c>
+      <c r="AD44">
+        <v>2.5</v>
+      </c>
+      <c r="AE44">
+        <v>4</v>
+      </c>
+      <c r="AF44">
+        <v>1</v>
+      </c>
+      <c r="AG44">
+        <v>2</v>
+      </c>
+      <c r="AH44">
+        <v>5</v>
+      </c>
+      <c r="AI44">
+        <v>2</v>
+      </c>
+      <c r="AK44">
+        <v>0.3</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
+        <v>4</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -2025,8 +2025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y7" workbookViewId="0">
-      <selection activeCell="AN49" sqref="AN49"/>
+    <sheetView tabSelected="1" topLeftCell="X7" workbookViewId="0">
+      <selection activeCell="AI15" sqref="AI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2517,10 +2517,10 @@
         <v>1</v>
       </c>
       <c r="AG4">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AH4">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AI4">
         <v>1</v>
@@ -2743,10 +2743,10 @@
         <v>2</v>
       </c>
       <c r="AG6">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AH6">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AI6">
         <v>1</v>
@@ -2862,10 +2862,10 @@
         <v>1</v>
       </c>
       <c r="AG7">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AH7">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AI7">
         <v>1</v>
@@ -2981,10 +2981,10 @@
         <v>1</v>
       </c>
       <c r="AG8">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AH8">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AI8">
         <v>1</v>
@@ -3100,10 +3100,10 @@
         <v>1</v>
       </c>
       <c r="AG9">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AH9">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AI9">
         <v>1</v>
@@ -3219,10 +3219,10 @@
         <v>1</v>
       </c>
       <c r="AG10">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AH10">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AI10">
         <v>1</v>
@@ -3338,10 +3338,10 @@
         <v>1</v>
       </c>
       <c r="AG11">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AH11">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AI11">
         <v>1</v>
@@ -3457,10 +3457,10 @@
         <v>1</v>
       </c>
       <c r="AG12">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AH12">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AI12">
         <v>1</v>
@@ -3576,10 +3576,10 @@
         <v>2</v>
       </c>
       <c r="AG13">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AH13">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AI13">
         <v>1</v>
@@ -3695,10 +3695,10 @@
         <v>2</v>
       </c>
       <c r="AG14">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AH14">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AI14">
         <v>1</v>
@@ -3814,10 +3814,10 @@
         <v>2</v>
       </c>
       <c r="AG15">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AH15">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AI15">
         <v>1</v>
@@ -3933,10 +3933,10 @@
         <v>1</v>
       </c>
       <c r="AG16">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AH16">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AI16">
         <v>1</v>
@@ -4052,10 +4052,10 @@
         <v>2</v>
       </c>
       <c r="AG17">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AH17">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AI17">
         <v>1</v>
@@ -4171,10 +4171,10 @@
         <v>1</v>
       </c>
       <c r="AG18">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AH18">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AI18">
         <v>1</v>
@@ -4290,10 +4290,10 @@
         <v>2</v>
       </c>
       <c r="AG19">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AH19">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AI19">
         <v>1</v>
@@ -4409,10 +4409,10 @@
         <v>2</v>
       </c>
       <c r="AG20">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AH20">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AI20">
         <v>1</v>
@@ -4528,10 +4528,10 @@
         <v>2</v>
       </c>
       <c r="AG21">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AH21">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AI21">
         <v>1</v>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1040,7 +1040,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="160">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1529,14 +1529,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,0.015;2,0.015;3,0.015;4,0.012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,0.15;6,0.15;7,0.15;12,0.12;13,0.12;14,0.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Enemy/Footman_Lit_blue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1545,14 +1537,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5,0.015;6,0.015;7,0.015;11,0.012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22,0.015;23,0.015;24,0.015;25,0.012;26,0.012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>boss1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1561,10 +1545,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8,0.15;9,0.15;10,0.15;18,0.12;19,0.12;20,0.12;21,0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>boss3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1577,17 +1557,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>32,0.015;33,0.015;34,0.015;5,0.012;6,0.012;7,0.012</t>
-  </si>
-  <si>
-    <t>32,0.015;33,0.015;34,0.015;5,0.012;6,0.012;7,0.012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35,0.15;36,0.15;43,0.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>boss4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1620,37 +1589,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8,0.015;9,0.015;10,0.015;18,0.015;19,0.015;20,0.015;21,0.015;27,0.015;28,0.015;29,0.015;30,0.015;41,0.015;</t>
-  </si>
-  <si>
-    <t>42,0.015;43,0.015;86,0.015;87,0.015;88,0.015;90,0.015;91,0.015;92,0.015;93,0.015;94,0.015;95,0.015;96,0.015;97,0.015;</t>
-  </si>
-  <si>
-    <t>89,0.1;87,0.1;88,0.1;</t>
-  </si>
-  <si>
-    <t>8,0.02;9,0.02;10,0.02;18,0.02;19,0.02;20,0.02;21,0.02;27,0.02;28,0.02;29,0.02;30,0.02;41,0.02;</t>
-  </si>
-  <si>
-    <t>42,0.02;43,0.02;86,0.02;87,0.02;88,0.02;90,0.02;91,0.02;92,0.02;93,0.02;94,0.02;95,0.02;96,0.015;97,0.02;</t>
-  </si>
-  <si>
-    <t>89,0.15;87,0.15;88,0.15;</t>
-  </si>
-  <si>
-    <t>8,0.025;9,0.025;10,0.025;18,0.025;19,0.025;20,0.025;21,0.025;27,0.025;28,0.025;29,0.025;30,0.025;41,0.025;</t>
-  </si>
-  <si>
-    <t>42,0.025;43,0.025;86,0.025;87,0.025;88,0.025;90,0.025;91,0.025;92,0.025;93,0.025;94,0.025;95,0.025;96,0.025;97,0.025;</t>
-  </si>
-  <si>
-    <t>89,0.18;87,0.18;88,0.18;</t>
+    <t>54,0.003;55,0.003;58,0.003;59,0.003;60,0.003;61,0.003;62,0.003;63,0.003;64,0.003;74,0.003;83,0.003;84,0.003;85,0.003;</t>
+  </si>
+  <si>
+    <t>8,0.35;9,0.35;10,0.35;18,0.32;19,0.32;20,0.32;21,0.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>54,0.01;55,0.01;58,0.01;59,0.01;60,0.01;61,0.01;62,0.01;63,0.01;64,0.01;74,0.01;83,0.01;84,0.01;85,0.01;</t>
-  </si>
-  <si>
-    <t>54,0.003;55,0.003;58,0.003;59,0.003;60,0.003;61,0.003;62,0.003;63,0.003;64,0.003;74,0.003;83,0.003;84,0.003;85,0.003;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,0.35;6,0.35;7,0.35;12,0.22;13,0.22;14,0.22;32,0.25;33,0.25;34,0.25;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32,0.015;33,0.015;34,0.015;8,0.02;9,0.02;10,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32,0.015;33,0.015;34,0.015;8,0.02;9,0.02;10,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89,0.1;87,0.1;88,0.1;42,0.215;43,0.215;86,0.215;87,0.215;88,0.215;90,0.215;91,0.215;92,0.215;93,0.215;94,0.215;95,0.215;96,0.215;97,0.215;30,0.3;44,0.2;45,0.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89,0.15;87,0.15;88,0.15;42,0.262;43,0.262;86,0.262;87,0.262;88,0.262;90,0.262;91,0.262;92,0.262;93,0.262;94,0.262;95,0.262;96,0.275;97,0.262;48,0.15;49,0.15;44,0.2;45,0.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89,0.18;87,0.18;88,0.18;42,0.375;43,0.375;86,0.375;87,0.375;88,0.375;90,0.375;91,0.375;92,0.375;93,0.375;94,0.375;95,0.375;96,0.375;97,0.375;48,0.15;49,0.15;50,0.15;44,0.2;45,0.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0.015;2,0.015;3,0.015;4,0.012;5,0.015;6,0.015;7,0.015;</t>
+  </si>
+  <si>
+    <t>1,0.015;2,0.015;3,0.015;4,0.012;5,0.015;6,0.015;7,0.015;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,0.015;6,0.015;7,0.015;11,0.052;8,0.01;9,0.01;10,0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,0.35;36,0.35;43,0.35;32,0.55;33,0.55;34,0.55;5,0.52;6,0.52;7,0.52;30,0.15;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,0.015;9,0.015;10,0.015;18,0.015;19,0.015;20,0.015;21,0.015;27,0.015;28,0.015;29,0.01;41,0.01;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,0.025;9,0.025;10,0.025;18,0.015;19,0.015;20,0.015;21,0.015;27,0.015;28,0.015;29,0.01;41,0.01;30,0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,0.025;9,0.025;10,0.025;18,0.015;19,0.015;20,0.015;21,0.015;27,0.015;28,0.015;29,0.01;41,0.01;30,0.01;48,0.01;49,0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,0.025;9,0.025;10,0.025;18,0.015;19,0.015;20,0.015;21,0.015;27,0.015;28,0.015;29,0.01;41,0.01;30,0.01;48,0.01;49,0.01;48,0.01;49,0.01;50,0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2025,8 +2027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X7" workbookViewId="0">
-      <selection activeCell="AI15" sqref="AI15"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AN28" sqref="AN28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2062,7 +2064,7 @@
     <col min="33" max="33" width="14.75" customWidth="1"/>
     <col min="34" max="34" width="14.375" customWidth="1"/>
     <col min="36" max="36" width="17.5" customWidth="1"/>
-    <col min="40" max="40" width="17.625" customWidth="1"/>
+    <col min="40" max="40" width="185" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15.75" x14ac:dyDescent="0.3">
@@ -2416,7 +2418,7 @@
         <v>4</v>
       </c>
       <c r="AN3" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.15">
@@ -2921,7 +2923,7 @@
         <v>44</v>
       </c>
       <c r="M8">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="N8">
         <v>3.2</v>
@@ -4897,7 +4899,7 @@
         <v>4</v>
       </c>
       <c r="AN24" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.15">
@@ -4905,7 +4907,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C25" t="s">
         <v>124</v>
@@ -5016,7 +5018,7 @@
         <v>4</v>
       </c>
       <c r="AN25" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.15">
@@ -5024,7 +5026,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D26">
         <v>110</v>
@@ -5132,7 +5134,7 @@
         <v>4</v>
       </c>
       <c r="AN26" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.15">
@@ -5140,7 +5142,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D27">
         <v>34</v>
@@ -5248,7 +5250,7 @@
         <v>4</v>
       </c>
       <c r="AN27" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.15">
@@ -5256,7 +5258,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C28" t="s">
         <v>124</v>
@@ -5367,7 +5369,7 @@
         <v>4</v>
       </c>
       <c r="AN28" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.15">
@@ -5375,7 +5377,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D29">
         <v>110</v>
@@ -5483,7 +5485,7 @@
         <v>4</v>
       </c>
       <c r="AN29" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.15">
@@ -5491,7 +5493,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D30">
         <v>34</v>
@@ -5599,7 +5601,7 @@
         <v>4</v>
       </c>
       <c r="AN30" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.15">
@@ -5607,7 +5609,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C31" t="s">
         <v>124</v>
@@ -5718,7 +5720,7 @@
         <v>4</v>
       </c>
       <c r="AN31" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.15">
@@ -5726,7 +5728,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D32">
         <v>110</v>
@@ -5834,7 +5836,7 @@
         <v>4</v>
       </c>
       <c r="AN32" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.15">
@@ -5842,7 +5844,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D33">
         <v>34</v>
@@ -5950,7 +5952,7 @@
         <v>4</v>
       </c>
       <c r="AN33" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.15">
@@ -5958,7 +5960,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C34" t="s">
         <v>124</v>
@@ -6069,7 +6071,7 @@
         <v>4</v>
       </c>
       <c r="AN34" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.15">
@@ -6077,7 +6079,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D35">
         <v>110</v>
@@ -6185,7 +6187,7 @@
         <v>4</v>
       </c>
       <c r="AN35" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.15">
@@ -6193,7 +6195,7 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D36">
         <v>34</v>
@@ -6301,7 +6303,7 @@
         <v>4</v>
       </c>
       <c r="AN36" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.15">
@@ -6309,7 +6311,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C37" t="s">
         <v>124</v>
@@ -6420,7 +6422,7 @@
         <v>4</v>
       </c>
       <c r="AN37" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.15">
@@ -6536,7 +6538,7 @@
         <v>4</v>
       </c>
       <c r="AN38" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.15">
@@ -6660,7 +6662,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C40" t="s">
         <v>124</v>
@@ -6771,7 +6773,7 @@
         <v>4</v>
       </c>
       <c r="AN40" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.15">
@@ -6779,7 +6781,7 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D41">
         <v>110</v>
@@ -6887,7 +6889,7 @@
         <v>4</v>
       </c>
       <c r="AN41" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.15">
@@ -6895,7 +6897,7 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42">
         <v>34</v>
@@ -7003,7 +7005,7 @@
         <v>4</v>
       </c>
       <c r="AN42" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.15">
@@ -7011,7 +7013,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C43" t="s">
         <v>124</v>
@@ -7122,7 +7124,7 @@
         <v>4</v>
       </c>
       <c r="AN43" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.15">
@@ -7130,7 +7132,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C44" t="s">
         <v>124</v>
@@ -7241,7 +7243,7 @@
         <v>4</v>
       </c>
       <c r="AN44" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
